--- a/output/aggregate_tables/capture_production_figures_data.xlsx
+++ b/output/aggregate_tables/capture_production_figures_data.xlsx
@@ -73,9 +73,6 @@
     <t>Arctica islandica</t>
   </si>
   <si>
-    <t>Pagophilus groenlandicus</t>
-  </si>
-  <si>
     <t>Chionoecetes opilio</t>
   </si>
   <si>
@@ -86,6 +83,9 @@
   </si>
   <si>
     <t>Spisula solidissima</t>
+  </si>
+  <si>
+    <t>Crassostrea virginica</t>
   </si>
   <si>
     <t>Micromesistius poutassou</t>
@@ -112,7 +112,7 @@
     <t>Mallotus villosus</t>
   </si>
   <si>
-    <t>Laminaria hyperborea</t>
+    <t>Sebastes mentella</t>
   </si>
   <si>
     <t>Brevoortia patronus</t>
@@ -385,10 +385,10 @@
     <t>Strangomera bentincki</t>
   </si>
   <si>
-    <t>Lessonia nigrescens</t>
+    <t>Sarda chiliensis</t>
   </si>
   <si>
-    <t>Sarda chiliensis</t>
+    <t>Merluccius gayi</t>
   </si>
   <si>
     <t>Euphausia superba</t>
@@ -1029,241 +1029,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>2.547692</v>
+        <v>2.256432</v>
       </c>
       <c r="C2">
-        <v>2.595001</v>
+        <v>2.118168</v>
       </c>
       <c r="D2">
-        <v>2.697323</v>
+        <v>2.378728</v>
       </c>
       <c r="E2">
-        <v>2.771994</v>
+        <v>2.482344</v>
       </c>
       <c r="F2">
-        <v>3.08088</v>
+        <v>2.780241</v>
       </c>
       <c r="G2">
-        <v>3.145424</v>
+        <v>2.776441</v>
       </c>
       <c r="H2">
-        <v>3.31854</v>
+        <v>2.892023</v>
       </c>
       <c r="I2">
-        <v>3.162146</v>
+        <v>2.889767</v>
       </c>
       <c r="J2">
-        <v>3.123115</v>
+        <v>2.782584</v>
       </c>
       <c r="K2">
-        <v>3.353476</v>
+        <v>3.004547</v>
       </c>
       <c r="L2">
-        <v>3.367426</v>
+        <v>3.054186</v>
       </c>
       <c r="M2">
-        <v>3.473897</v>
+        <v>3.260867</v>
       </c>
       <c r="N2">
-        <v>3.839169</v>
+        <v>3.483208</v>
       </c>
       <c r="O2">
-        <v>3.863837</v>
+        <v>3.496653</v>
       </c>
       <c r="P2">
-        <v>3.989348</v>
+        <v>3.603819</v>
       </c>
       <c r="Q2">
-        <v>4.248606</v>
+        <v>3.971975</v>
       </c>
       <c r="R2">
-        <v>4.359788</v>
+        <v>3.969699</v>
       </c>
       <c r="S2">
-        <v>4.385318</v>
+        <v>3.983923</v>
       </c>
       <c r="T2">
-        <v>4.815548</v>
+        <v>4.562758</v>
       </c>
       <c r="U2">
-        <v>4.783735</v>
+        <v>4.390457</v>
       </c>
       <c r="V2">
-        <v>4.528248</v>
+        <v>4.147645</v>
       </c>
       <c r="W2">
-        <v>4.663545</v>
+        <v>4.319921</v>
       </c>
       <c r="X2">
-        <v>4.520128</v>
+        <v>4.282592</v>
       </c>
       <c r="Y2">
-        <v>4.672724</v>
+        <v>4.427185</v>
       </c>
       <c r="Z2">
-        <v>4.246492</v>
+        <v>3.95111</v>
       </c>
       <c r="AA2">
-        <v>4.065674</v>
+        <v>3.766317</v>
       </c>
       <c r="AB2">
-        <v>3.663849</v>
+        <v>3.381176</v>
       </c>
       <c r="AC2">
-        <v>3.273877</v>
+        <v>2.986517</v>
       </c>
       <c r="AD2">
-        <v>3.085518</v>
+        <v>2.782504</v>
       </c>
       <c r="AE2">
-        <v>3.249192</v>
+        <v>2.935404</v>
       </c>
       <c r="AF2">
-        <v>3.168006</v>
+        <v>2.868726</v>
       </c>
       <c r="AG2">
-        <v>3.165595</v>
+        <v>2.837908</v>
       </c>
       <c r="AH2">
-        <v>3.094128</v>
+        <v>2.806805</v>
       </c>
       <c r="AI2">
-        <v>2.867887</v>
+        <v>2.70408</v>
       </c>
       <c r="AJ2">
-        <v>2.870821</v>
+        <v>2.736123</v>
       </c>
       <c r="AK2">
-        <v>2.97473</v>
+        <v>2.874777</v>
       </c>
       <c r="AL2">
-        <v>3.038168</v>
+        <v>2.964321</v>
       </c>
       <c r="AM2">
-        <v>3.221174</v>
+        <v>3.079765</v>
       </c>
       <c r="AN2">
-        <v>3.26613</v>
+        <v>3.08238</v>
       </c>
       <c r="AO2">
-        <v>3.266548</v>
+        <v>3.122435</v>
       </c>
       <c r="AP2">
-        <v>3.412957</v>
+        <v>3.268156</v>
       </c>
       <c r="AQ2">
-        <v>3.029762</v>
+        <v>2.893961</v>
       </c>
       <c r="AR2">
-        <v>2.733152</v>
+        <v>2.583233</v>
       </c>
       <c r="AS2">
-        <v>2.514957</v>
+        <v>2.353766</v>
       </c>
       <c r="AT2">
-        <v>2.190485</v>
+        <v>1.986041</v>
       </c>
       <c r="AU2">
-        <v>2.303494</v>
+        <v>2.088025</v>
       </c>
       <c r="AV2">
-        <v>2.519569</v>
+        <v>2.08463</v>
       </c>
       <c r="AW2">
-        <v>2.46974</v>
+        <v>2.033521</v>
       </c>
       <c r="AX2">
-        <v>2.455445</v>
+        <v>2.01323</v>
       </c>
       <c r="AY2">
-        <v>2.452594</v>
+        <v>2.023888</v>
       </c>
       <c r="AZ2">
-        <v>2.426302</v>
+        <v>2.130354</v>
       </c>
       <c r="BA2">
-        <v>2.66698</v>
+        <v>2.275479</v>
       </c>
       <c r="BB2">
-        <v>2.751931</v>
+        <v>2.278388</v>
       </c>
       <c r="BC2">
-        <v>2.786426</v>
+        <v>2.33751</v>
       </c>
       <c r="BD2">
-        <v>2.895073</v>
+        <v>2.386859</v>
       </c>
       <c r="BE2">
-        <v>2.702394</v>
+        <v>2.213432</v>
       </c>
       <c r="BF2">
-        <v>2.742888</v>
+        <v>2.251414</v>
       </c>
       <c r="BG2">
-        <v>2.544373</v>
+        <v>2.173843</v>
       </c>
       <c r="BH2">
-        <v>2.44672306</v>
+        <v>2.08281206</v>
       </c>
       <c r="BI2">
-        <v>2.27364392</v>
+        <v>2.05985192</v>
       </c>
       <c r="BJ2">
-        <v>2.33311415</v>
+        <v>2.08269215</v>
       </c>
       <c r="BK2">
-        <v>2.17698097</v>
+        <v>1.99439697</v>
       </c>
       <c r="BL2">
-        <v>2.15614229</v>
+        <v>1.96540329</v>
       </c>
       <c r="BM2">
-        <v>2.04203805</v>
+        <v>1.81603505</v>
       </c>
       <c r="BN2">
-        <v>1.97699996</v>
+        <v>1.79070796</v>
       </c>
       <c r="BO2">
-        <v>1.95613546</v>
+        <v>1.80597146</v>
       </c>
       <c r="BP2">
-        <v>1.91387257</v>
+        <v>1.74370157</v>
       </c>
       <c r="BQ2">
-        <v>1.92748319</v>
+        <v>1.75159042</v>
       </c>
       <c r="BR2">
-        <v>1.89410768</v>
+        <v>1.72322568</v>
       </c>
       <c r="BS2">
-        <v>1.88840211</v>
+        <v>1.78521211</v>
       </c>
       <c r="BT2">
-        <v>1.6733723</v>
+        <v>1.5728533</v>
       </c>
       <c r="BU2">
-        <v>1.7549138</v>
+        <v>1.6229748</v>
       </c>
       <c r="BV2">
-        <v>2.9795591</v>
+        <v>2.6361275</v>
       </c>
       <c r="BW2">
-        <v>4.112667200000001</v>
+        <v>3.777754499999999</v>
       </c>
       <c r="BX2">
-        <v>3.9969247</v>
+        <v>3.6980371</v>
       </c>
       <c r="BY2">
-        <v>3.0933187</v>
+        <v>2.907732</v>
       </c>
       <c r="BZ2">
-        <v>2.6082155</v>
+        <v>2.3328451</v>
       </c>
       <c r="CA2">
-        <v>2.623673398</v>
+        <v>2.218994298</v>
       </c>
       <c r="CB2">
-        <v>1.974463544166667</v>
+        <v>1.80456373</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -2376,220 +2376,220 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.283082</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.455585</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.307108</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.272886</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.283328</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.348804</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0.400293</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.258357</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.314491</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.328978</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.293329</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.188352</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.328383</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.334545</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.350803</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.243504</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>0.330768</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.338571</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0.199722</v>
+        <v>0.0052</v>
       </c>
       <c r="U8">
-        <v>0.295195</v>
+        <v>0.0089</v>
       </c>
       <c r="V8">
-        <v>0.263673</v>
+        <v>0.0065</v>
       </c>
       <c r="W8">
-        <v>0.236839</v>
+        <v>0.0069</v>
       </c>
       <c r="X8">
-        <v>0.135835</v>
+        <v>0.007</v>
       </c>
       <c r="Y8">
-        <v>0.132994</v>
+        <v>0.0103</v>
       </c>
       <c r="Z8">
-        <v>0.154708</v>
+        <v>0.010759</v>
       </c>
       <c r="AA8">
-        <v>0.180316</v>
+        <v>0.006696</v>
       </c>
       <c r="AB8">
-        <v>0.172789</v>
+        <v>0.009953</v>
       </c>
       <c r="AC8">
-        <v>0.165081</v>
+        <v>0.014219</v>
       </c>
       <c r="AD8">
-        <v>0.172263</v>
+        <v>0.021022</v>
       </c>
       <c r="AE8">
-        <v>0.173315</v>
+        <v>0.030855</v>
       </c>
       <c r="AF8">
-        <v>0.181796</v>
+        <v>0.028724</v>
       </c>
       <c r="AG8">
-        <v>0.211437</v>
+        <v>0.037854</v>
       </c>
       <c r="AH8">
-        <v>0.183983</v>
+        <v>0.048258</v>
       </c>
       <c r="AI8">
-        <v>0.076628</v>
+        <v>0.041514</v>
       </c>
       <c r="AJ8">
-        <v>0.048567</v>
+        <v>0.042711</v>
       </c>
       <c r="AK8">
-        <v>0.037475</v>
+        <v>0.043249</v>
       </c>
       <c r="AL8">
-        <v>0.039866</v>
+        <v>0.042815</v>
       </c>
       <c r="AM8">
-        <v>0.060088</v>
+        <v>0.02704</v>
       </c>
       <c r="AN8">
-        <v>0.101761</v>
+        <v>0.029558</v>
       </c>
       <c r="AO8">
-        <v>0.07326299999999999</v>
+        <v>0.022363</v>
       </c>
       <c r="AP8">
-        <v>0.070409</v>
+        <v>0.026126</v>
       </c>
       <c r="AQ8">
-        <v>0.061675</v>
+        <v>0.035161</v>
       </c>
       <c r="AR8">
-        <v>0.084324</v>
+        <v>0.037082</v>
       </c>
       <c r="AS8">
-        <v>0.07867499999999999</v>
+        <v>0.048101</v>
       </c>
       <c r="AT8">
-        <v>0.115676</v>
+        <v>0.060474</v>
       </c>
       <c r="AU8">
-        <v>0.124891</v>
+        <v>0.066372</v>
       </c>
       <c r="AV8">
-        <v>0.312717</v>
+        <v>0.066831</v>
       </c>
       <c r="AW8">
-        <v>0.329204</v>
+        <v>0.074341</v>
       </c>
       <c r="AX8">
-        <v>0.32949</v>
+        <v>0.077517</v>
       </c>
       <c r="AY8">
-        <v>0.320149</v>
+        <v>0.098633</v>
       </c>
       <c r="AZ8">
-        <v>0.184313</v>
+        <v>0.104252</v>
       </c>
       <c r="BA8">
-        <v>0.277531</v>
+        <v>0.110044</v>
       </c>
       <c r="BB8">
-        <v>0.35132</v>
+        <v>0.116757</v>
       </c>
       <c r="BC8">
-        <v>0.326783</v>
+        <v>0.103844</v>
       </c>
       <c r="BD8">
-        <v>0.39476</v>
+        <v>0.109352</v>
       </c>
       <c r="BE8">
-        <v>0.365064</v>
+        <v>0.100244</v>
       </c>
       <c r="BF8">
-        <v>0.373083</v>
+        <v>0.092983</v>
       </c>
       <c r="BG8">
-        <v>0.291353</v>
+        <v>0.093014</v>
       </c>
       <c r="BH8">
-        <v>0.282165</v>
+        <v>0.096174</v>
       </c>
       <c r="BI8">
-        <v>0.112113</v>
+        <v>0.100468</v>
       </c>
       <c r="BJ8">
-        <v>0.147345</v>
+        <v>0.087988</v>
       </c>
       <c r="BK8">
-        <v>0.101775</v>
+        <v>0.086406</v>
       </c>
       <c r="BL8">
-        <v>0.115513</v>
+        <v>0.094989</v>
       </c>
       <c r="BM8">
-        <v>0.148217</v>
+        <v>0.10029</v>
       </c>
       <c r="BN8">
-        <v>0.111682</v>
+        <v>0.097887</v>
       </c>
       <c r="BO8">
-        <v>0.08511100000000001</v>
+        <v>0.09465124000000001</v>
       </c>
       <c r="BP8">
-        <v>0.113403</v>
+        <v>0.08464875999999999</v>
       </c>
       <c r="BQ8">
-        <v>0.124777</v>
+        <v>0.09468927000000001</v>
       </c>
       <c r="BR8">
-        <v>0.105863</v>
+        <v>0.07014767999999999</v>
       </c>
       <c r="BS8">
-        <v>0.048148</v>
+        <v>0.07472647</v>
       </c>
       <c r="BT8">
-        <v>0.047751</v>
+        <v>0.07429563</v>
       </c>
       <c r="BU8">
-        <v>0.081425</v>
+        <v>0.08024919999999999</v>
       </c>
     </row>
     <row r="9" spans="1:80">
@@ -2597,220 +2597,220 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.219647</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.152087</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.203183</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.152465</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.157856</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.139138</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.156087</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.172202</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.186898</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.163456</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.181197</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.182103</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.344793</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.28544</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.306108</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.265897</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.429774</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.594756</v>
       </c>
       <c r="T9">
-        <v>0.0052</v>
+        <v>0.94684</v>
       </c>
       <c r="U9">
-        <v>0.0089</v>
+        <v>0.97056</v>
       </c>
       <c r="V9">
-        <v>0.0065</v>
+        <v>0.849334</v>
       </c>
       <c r="W9">
-        <v>0.0069</v>
+        <v>0.746883</v>
       </c>
       <c r="X9">
-        <v>0.007</v>
+        <v>0.5471200000000001</v>
       </c>
       <c r="Y9">
-        <v>0.0103</v>
+        <v>0.485361</v>
       </c>
       <c r="Z9">
-        <v>0.010759</v>
+        <v>0.433049</v>
       </c>
       <c r="AA9">
-        <v>0.006696</v>
+        <v>0.448338</v>
       </c>
       <c r="AB9">
-        <v>0.009953</v>
+        <v>0.32252</v>
       </c>
       <c r="AC9">
-        <v>0.014219</v>
+        <v>0.281759</v>
       </c>
       <c r="AD9">
-        <v>0.021022</v>
+        <v>0.296637</v>
       </c>
       <c r="AE9">
-        <v>0.030855</v>
+        <v>0.252949</v>
       </c>
       <c r="AF9">
-        <v>0.028724</v>
+        <v>0.2604</v>
       </c>
       <c r="AG9">
-        <v>0.037854</v>
+        <v>0.224556</v>
       </c>
       <c r="AH9">
-        <v>0.048258</v>
+        <v>0.180372</v>
       </c>
       <c r="AI9">
-        <v>0.041514</v>
+        <v>0.16572</v>
       </c>
       <c r="AJ9">
-        <v>0.042711</v>
+        <v>0.166065</v>
       </c>
       <c r="AK9">
-        <v>0.043249</v>
+        <v>0.219388</v>
       </c>
       <c r="AL9">
-        <v>0.042815</v>
+        <v>0.223305</v>
       </c>
       <c r="AM9">
-        <v>0.02704</v>
+        <v>0.287195</v>
       </c>
       <c r="AN9">
-        <v>0.029558</v>
+        <v>0.321002</v>
       </c>
       <c r="AO9">
-        <v>0.022363</v>
+        <v>0.283865</v>
       </c>
       <c r="AP9">
-        <v>0.026126</v>
+        <v>0.31492</v>
       </c>
       <c r="AQ9">
-        <v>0.035161</v>
+        <v>0.279292</v>
       </c>
       <c r="AR9">
-        <v>0.037082</v>
+        <v>0.276117</v>
       </c>
       <c r="AS9">
-        <v>0.048101</v>
+        <v>0.25433</v>
       </c>
       <c r="AT9">
-        <v>0.060474</v>
+        <v>0.255445</v>
       </c>
       <c r="AU9">
-        <v>0.066372</v>
+        <v>0.271425</v>
       </c>
       <c r="AV9">
-        <v>0.066831</v>
+        <v>0.281922</v>
       </c>
       <c r="AW9">
-        <v>0.074341</v>
+        <v>0.282197</v>
       </c>
       <c r="AX9">
-        <v>0.077517</v>
+        <v>0.272925</v>
       </c>
       <c r="AY9">
-        <v>0.098633</v>
+        <v>0.281589</v>
       </c>
       <c r="AZ9">
-        <v>0.104252</v>
+        <v>0.275295</v>
       </c>
       <c r="BA9">
-        <v>0.110044</v>
+        <v>0.295745</v>
       </c>
       <c r="BB9">
-        <v>0.116757</v>
+        <v>0.252684</v>
       </c>
       <c r="BC9">
-        <v>0.103844</v>
+        <v>0.296396</v>
       </c>
       <c r="BD9">
-        <v>0.109352</v>
+        <v>0.268363</v>
       </c>
       <c r="BE9">
-        <v>0.100244</v>
+        <v>0.260052</v>
       </c>
       <c r="BF9">
-        <v>0.092983</v>
+        <v>0.280934</v>
       </c>
       <c r="BG9">
-        <v>0.093014</v>
+        <v>0.241639</v>
       </c>
       <c r="BH9">
-        <v>0.096174</v>
+        <v>0.219344</v>
       </c>
       <c r="BI9">
-        <v>0.100468</v>
+        <v>0.257038</v>
       </c>
       <c r="BJ9">
-        <v>0.087988</v>
+        <v>0.216147</v>
       </c>
       <c r="BK9">
-        <v>0.086406</v>
+        <v>0.214622</v>
       </c>
       <c r="BL9">
-        <v>0.094989</v>
+        <v>0.200971</v>
       </c>
       <c r="BM9">
-        <v>0.10029</v>
+        <v>0.219626</v>
       </c>
       <c r="BN9">
-        <v>0.097887</v>
+        <v>0.206377</v>
       </c>
       <c r="BO9">
-        <v>0.09465124000000001</v>
+        <v>0.19388866</v>
       </c>
       <c r="BP9">
-        <v>0.08464875999999999</v>
+        <v>0.18115077</v>
       </c>
       <c r="BQ9">
-        <v>0.09468927000000001</v>
+        <v>0.14983026</v>
       </c>
       <c r="BR9">
-        <v>0.07014767999999999</v>
+        <v>0.14395596</v>
       </c>
       <c r="BS9">
-        <v>0.07472647</v>
+        <v>0.10511591</v>
       </c>
       <c r="BT9">
-        <v>0.07429563</v>
+        <v>0.09100035000000001</v>
       </c>
       <c r="BU9">
-        <v>0.08024919999999999</v>
+        <v>0.07358592</v>
       </c>
     </row>
     <row r="10" spans="1:80">
@@ -2818,220 +2818,220 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.219647</v>
+        <v>0.0005</v>
       </c>
       <c r="C10">
-        <v>0.152087</v>
+        <v>0.0005</v>
       </c>
       <c r="D10">
-        <v>0.203183</v>
+        <v>0.0005</v>
       </c>
       <c r="E10">
-        <v>0.152465</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F10">
-        <v>0.157856</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G10">
-        <v>0.139138</v>
+        <v>0.0007</v>
       </c>
       <c r="H10">
-        <v>0.156087</v>
+        <v>0.0011</v>
       </c>
       <c r="I10">
-        <v>0.172202</v>
+        <v>0.0009</v>
       </c>
       <c r="J10">
-        <v>0.186898</v>
+        <v>0.0013</v>
       </c>
       <c r="K10">
-        <v>0.163456</v>
+        <v>0.0017</v>
       </c>
       <c r="L10">
-        <v>0.181197</v>
+        <v>0.001585</v>
       </c>
       <c r="M10">
-        <v>0.182103</v>
+        <v>0.002202</v>
       </c>
       <c r="N10">
-        <v>0.344793</v>
+        <v>0.0021</v>
       </c>
       <c r="O10">
-        <v>0.28544</v>
+        <v>0.006606</v>
       </c>
       <c r="P10">
-        <v>0.306108</v>
+        <v>0.009861</v>
       </c>
       <c r="Q10">
-        <v>0.265897</v>
+        <v>0.016756</v>
       </c>
       <c r="R10">
-        <v>0.429774</v>
+        <v>0.020948</v>
       </c>
       <c r="S10">
-        <v>0.594756</v>
+        <v>0.029794</v>
       </c>
       <c r="T10">
-        <v>0.94684</v>
+        <v>0.037074</v>
       </c>
       <c r="U10">
-        <v>0.97056</v>
+        <v>0.042515</v>
       </c>
       <c r="V10">
-        <v>0.849334</v>
+        <v>0.040028</v>
       </c>
       <c r="W10">
-        <v>0.746883</v>
+        <v>0.030121</v>
       </c>
       <c r="X10">
-        <v>0.5471200000000001</v>
+        <v>0.044814</v>
       </c>
       <c r="Y10">
-        <v>0.485361</v>
+        <v>0.039623</v>
       </c>
       <c r="Z10">
-        <v>0.433049</v>
+        <v>0.043058</v>
       </c>
       <c r="AA10">
-        <v>0.448338</v>
+        <v>0.055465</v>
       </c>
       <c r="AB10">
-        <v>0.32252</v>
+        <v>0.042613</v>
       </c>
       <c r="AC10">
-        <v>0.281759</v>
+        <v>0.049647</v>
       </c>
       <c r="AD10">
-        <v>0.296637</v>
+        <v>0.057743</v>
       </c>
       <c r="AE10">
-        <v>0.252949</v>
+        <v>0.06319</v>
       </c>
       <c r="AF10">
-        <v>0.2604</v>
+        <v>0.048709</v>
       </c>
       <c r="AG10">
-        <v>0.224556</v>
+        <v>0.040231</v>
       </c>
       <c r="AH10">
-        <v>0.180372</v>
+        <v>0.034952</v>
       </c>
       <c r="AI10">
-        <v>0.16572</v>
+        <v>0.035919</v>
       </c>
       <c r="AJ10">
-        <v>0.166065</v>
+        <v>0.036665</v>
       </c>
       <c r="AK10">
-        <v>0.219388</v>
+        <v>0.034121</v>
       </c>
       <c r="AL10">
-        <v>0.223305</v>
+        <v>0.033083</v>
       </c>
       <c r="AM10">
-        <v>0.287195</v>
+        <v>0.047488</v>
       </c>
       <c r="AN10">
-        <v>0.321002</v>
+        <v>0.033431</v>
       </c>
       <c r="AO10">
-        <v>0.283865</v>
+        <v>0.033702</v>
       </c>
       <c r="AP10">
-        <v>0.31492</v>
+        <v>0.060141</v>
       </c>
       <c r="AQ10">
-        <v>0.279292</v>
+        <v>0.068929</v>
       </c>
       <c r="AR10">
-        <v>0.276117</v>
+        <v>0.099536</v>
       </c>
       <c r="AS10">
-        <v>0.25433</v>
+        <v>0.083749</v>
       </c>
       <c r="AT10">
-        <v>0.255445</v>
+        <v>0.083088</v>
       </c>
       <c r="AU10">
-        <v>0.271425</v>
+        <v>0.043931</v>
       </c>
       <c r="AV10">
-        <v>0.281922</v>
+        <v>0.050623</v>
       </c>
       <c r="AW10">
-        <v>0.282197</v>
+        <v>0.055989</v>
       </c>
       <c r="AX10">
-        <v>0.272925</v>
+        <v>0.052488</v>
       </c>
       <c r="AY10">
-        <v>0.281589</v>
+        <v>0.06987400000000001</v>
       </c>
       <c r="AZ10">
-        <v>0.275295</v>
+        <v>0.06460399999999999</v>
       </c>
       <c r="BA10">
-        <v>0.295745</v>
+        <v>0.061431</v>
       </c>
       <c r="BB10">
-        <v>0.252684</v>
+        <v>0.064482</v>
       </c>
       <c r="BC10">
-        <v>0.296396</v>
+        <v>0.07185900000000001</v>
       </c>
       <c r="BD10">
-        <v>0.268363</v>
+        <v>0.057914</v>
       </c>
       <c r="BE10">
-        <v>0.260052</v>
+        <v>0.059079</v>
       </c>
       <c r="BF10">
-        <v>0.280934</v>
+        <v>0.062072</v>
       </c>
       <c r="BG10">
-        <v>0.241639</v>
+        <v>0.057481</v>
       </c>
       <c r="BH10">
-        <v>0.219344</v>
+        <v>0.05330298999999999</v>
       </c>
       <c r="BI10">
-        <v>0.257038</v>
+        <v>0.05380937</v>
       </c>
       <c r="BJ10">
-        <v>0.216147</v>
+        <v>0.05826869</v>
       </c>
       <c r="BK10">
-        <v>0.214622</v>
+        <v>0.058504</v>
       </c>
       <c r="BL10">
-        <v>0.200971</v>
+        <v>0.057581</v>
       </c>
       <c r="BM10">
-        <v>0.219626</v>
+        <v>0.058398</v>
       </c>
       <c r="BN10">
-        <v>0.206377</v>
+        <v>0.06540508</v>
       </c>
       <c r="BO10">
-        <v>0.19388866</v>
+        <v>0.06216825</v>
       </c>
       <c r="BP10">
-        <v>0.18115077</v>
+        <v>0.06820583</v>
       </c>
       <c r="BQ10">
-        <v>0.14983026</v>
+        <v>0.06138241000000001</v>
       </c>
       <c r="BR10">
-        <v>0.14395596</v>
+        <v>0.06625294</v>
       </c>
       <c r="BS10">
-        <v>0.10511591</v>
+        <v>0.071642</v>
       </c>
       <c r="BT10">
-        <v>0.09100035000000001</v>
+        <v>0.06703722999999999</v>
       </c>
       <c r="BU10">
-        <v>0.07358592</v>
+        <v>0.06689918</v>
       </c>
     </row>
     <row r="11" spans="1:80">
@@ -3039,220 +3039,220 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.0005</v>
+        <v>0.024935</v>
       </c>
       <c r="C11">
-        <v>0.0005</v>
+        <v>0.033775</v>
       </c>
       <c r="D11">
-        <v>0.0005</v>
+        <v>0.040733</v>
       </c>
       <c r="E11">
-        <v>0.0005999999999999999</v>
+        <v>0.032923</v>
       </c>
       <c r="F11">
-        <v>0.0005999999999999999</v>
+        <v>0.03746</v>
       </c>
       <c r="G11">
-        <v>0.0007</v>
+        <v>0.038716</v>
       </c>
       <c r="H11">
-        <v>0.0011</v>
+        <v>0.051454</v>
       </c>
       <c r="I11">
-        <v>0.0009</v>
+        <v>0.057822</v>
       </c>
       <c r="J11">
-        <v>0.0013</v>
+        <v>0.046583</v>
       </c>
       <c r="K11">
-        <v>0.0017</v>
+        <v>0.074827</v>
       </c>
       <c r="L11">
-        <v>0.001585</v>
+        <v>0.080734</v>
       </c>
       <c r="M11">
-        <v>0.002202</v>
+        <v>0.088573</v>
       </c>
       <c r="N11">
-        <v>0.0021</v>
+        <v>0.09936499999999999</v>
       </c>
       <c r="O11">
-        <v>0.006606</v>
+        <v>0.124271</v>
       </c>
       <c r="P11">
-        <v>0.009861</v>
+        <v>0.122844</v>
       </c>
       <c r="Q11">
-        <v>0.016756</v>
+        <v>0.141986</v>
       </c>
       <c r="R11">
-        <v>0.020948</v>
+        <v>0.145287</v>
       </c>
       <c r="S11">
-        <v>0.029794</v>
+        <v>0.145103</v>
       </c>
       <c r="T11">
-        <v>0.037074</v>
+        <v>0.130597</v>
       </c>
       <c r="U11">
-        <v>0.042515</v>
+        <v>0.159658</v>
       </c>
       <c r="V11">
-        <v>0.040028</v>
+        <v>0.1529</v>
       </c>
       <c r="W11">
-        <v>0.030121</v>
+        <v>0.1188</v>
       </c>
       <c r="X11">
-        <v>0.044814</v>
+        <v>0.135</v>
       </c>
       <c r="Y11">
-        <v>0.039623</v>
+        <v>0.1699</v>
       </c>
       <c r="Z11">
-        <v>0.043058</v>
+        <v>0.180287</v>
       </c>
       <c r="AA11">
-        <v>0.055465</v>
+        <v>0.173509</v>
       </c>
       <c r="AB11">
-        <v>0.042613</v>
+        <v>0.102152</v>
       </c>
       <c r="AC11">
-        <v>0.049647</v>
+        <v>0.104792</v>
       </c>
       <c r="AD11">
-        <v>0.057743</v>
+        <v>0.07931299999999999</v>
       </c>
       <c r="AE11">
-        <v>0.06319</v>
+        <v>0.069954</v>
       </c>
       <c r="AF11">
-        <v>0.048709</v>
+        <v>0.090831</v>
       </c>
       <c r="AG11">
-        <v>0.040231</v>
+        <v>0.111255</v>
       </c>
       <c r="AH11">
-        <v>0.034952</v>
+        <v>0.12198</v>
       </c>
       <c r="AI11">
-        <v>0.035919</v>
+        <v>0.137918</v>
       </c>
       <c r="AJ11">
-        <v>0.036665</v>
+        <v>0.175749</v>
       </c>
       <c r="AK11">
-        <v>0.034121</v>
+        <v>0.182833</v>
       </c>
       <c r="AL11">
-        <v>0.033083</v>
+        <v>0.195162</v>
       </c>
       <c r="AM11">
-        <v>0.047488</v>
+        <v>0.149183</v>
       </c>
       <c r="AN11">
-        <v>0.033431</v>
+        <v>0.15664</v>
       </c>
       <c r="AO11">
-        <v>0.033702</v>
+        <v>0.164237</v>
       </c>
       <c r="AP11">
-        <v>0.060141</v>
+        <v>0.174718</v>
       </c>
       <c r="AQ11">
-        <v>0.068929</v>
+        <v>0.160608</v>
       </c>
       <c r="AR11">
-        <v>0.099536</v>
+        <v>0.183398</v>
       </c>
       <c r="AS11">
-        <v>0.083749</v>
+        <v>0.180239</v>
       </c>
       <c r="AT11">
-        <v>0.083088</v>
+        <v>0.168521</v>
       </c>
       <c r="AU11">
-        <v>0.043931</v>
+        <v>0.145878</v>
       </c>
       <c r="AV11">
-        <v>0.050623</v>
+        <v>0.143638</v>
       </c>
       <c r="AW11">
-        <v>0.055989</v>
+        <v>0.13206</v>
       </c>
       <c r="AX11">
-        <v>0.052488</v>
+        <v>0.122595</v>
       </c>
       <c r="AY11">
-        <v>0.06987400000000001</v>
+        <v>0.134095</v>
       </c>
       <c r="AZ11">
-        <v>0.06460399999999999</v>
+        <v>0.156865</v>
       </c>
       <c r="BA11">
-        <v>0.061431</v>
+        <v>0.147336</v>
       </c>
       <c r="BB11">
-        <v>0.064482</v>
+        <v>0.159003</v>
       </c>
       <c r="BC11">
-        <v>0.07185900000000001</v>
+        <v>0.160677</v>
       </c>
       <c r="BD11">
-        <v>0.057914</v>
+        <v>0.129374</v>
       </c>
       <c r="BE11">
-        <v>0.059079</v>
+        <v>0.133781</v>
       </c>
       <c r="BF11">
-        <v>0.062072</v>
+        <v>0.120228</v>
       </c>
       <c r="BG11">
-        <v>0.057481</v>
+        <v>0.135805</v>
       </c>
       <c r="BH11">
-        <v>0.05330298999999999</v>
+        <v>0.122649</v>
       </c>
       <c r="BI11">
-        <v>0.05380937</v>
+        <v>0.112851</v>
       </c>
       <c r="BJ11">
-        <v>0.05826869</v>
+        <v>0.099399</v>
       </c>
       <c r="BK11">
-        <v>0.058504</v>
+        <v>0.102192</v>
       </c>
       <c r="BL11">
-        <v>0.057581</v>
+        <v>0.107989</v>
       </c>
       <c r="BM11">
-        <v>0.058398</v>
+        <v>0.105745</v>
       </c>
       <c r="BN11">
-        <v>0.06540508</v>
+        <v>0.09413100000000001</v>
       </c>
       <c r="BO11">
-        <v>0.06216825</v>
+        <v>0.097442</v>
       </c>
       <c r="BP11">
-        <v>0.06820583</v>
+        <v>0.09640313</v>
       </c>
       <c r="BQ11">
-        <v>0.06138241000000001</v>
+        <v>0.04983195</v>
       </c>
       <c r="BR11">
-        <v>0.06625294</v>
+        <v>0.08644278999999999</v>
       </c>
       <c r="BS11">
-        <v>0.071642</v>
+        <v>0.07914180999999999</v>
       </c>
       <c r="BT11">
-        <v>0.06703722999999999</v>
+        <v>0.03013445</v>
       </c>
       <c r="BU11">
-        <v>0.06689918</v>
+        <v>0.06067475</v>
       </c>
     </row>
     <row r="12" spans="1:80">
@@ -3260,220 +3260,220 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.024935</v>
+        <v>0.239235</v>
       </c>
       <c r="C12">
-        <v>0.033775</v>
+        <v>0.220307</v>
       </c>
       <c r="D12">
-        <v>0.040733</v>
+        <v>0.240236</v>
       </c>
       <c r="E12">
-        <v>0.032923</v>
+        <v>0.236312</v>
       </c>
       <c r="F12">
-        <v>0.03746</v>
+        <v>0.249367</v>
       </c>
       <c r="G12">
-        <v>0.038716</v>
+        <v>0.223162</v>
       </c>
       <c r="H12">
-        <v>0.051454</v>
+        <v>0.205894</v>
       </c>
       <c r="I12">
-        <v>0.057822</v>
+        <v>0.19321</v>
       </c>
       <c r="J12">
-        <v>0.046583</v>
+        <v>0.187891</v>
       </c>
       <c r="K12">
-        <v>0.074827</v>
+        <v>0.157246</v>
       </c>
       <c r="L12">
-        <v>0.080734</v>
+        <v>0.128881</v>
       </c>
       <c r="M12">
-        <v>0.088573</v>
+        <v>0.13402</v>
       </c>
       <c r="N12">
-        <v>0.09936499999999999</v>
+        <v>0.10135</v>
       </c>
       <c r="O12">
-        <v>0.124271</v>
+        <v>0.08877500000000001</v>
       </c>
       <c r="P12">
-        <v>0.122844</v>
+        <v>0.106215</v>
       </c>
       <c r="Q12">
-        <v>0.141986</v>
+        <v>0.100058</v>
       </c>
       <c r="R12">
-        <v>0.145287</v>
+        <v>0.101244</v>
       </c>
       <c r="S12">
-        <v>0.145103</v>
+        <v>0.122072</v>
       </c>
       <c r="T12">
-        <v>0.130597</v>
+        <v>0.109275</v>
       </c>
       <c r="U12">
-        <v>0.159658</v>
+        <v>0.105706</v>
       </c>
       <c r="V12">
-        <v>0.1529</v>
+        <v>0.1637</v>
       </c>
       <c r="W12">
-        <v>0.1188</v>
+        <v>0.1837</v>
       </c>
       <c r="X12">
-        <v>0.135</v>
+        <v>0.1709</v>
       </c>
       <c r="Y12">
-        <v>0.1699</v>
+        <v>0.1748</v>
       </c>
       <c r="Z12">
-        <v>0.180287</v>
+        <v>0.17362</v>
       </c>
       <c r="AA12">
-        <v>0.173509</v>
+        <v>0.159836</v>
       </c>
       <c r="AB12">
-        <v>0.102152</v>
+        <v>0.154526</v>
       </c>
       <c r="AC12">
-        <v>0.104792</v>
+        <v>0.120571</v>
       </c>
       <c r="AD12">
-        <v>0.07931299999999999</v>
+        <v>0.148975</v>
       </c>
       <c r="AE12">
-        <v>0.069954</v>
+        <v>0.14664</v>
       </c>
       <c r="AF12">
-        <v>0.090831</v>
+        <v>0.156493</v>
       </c>
       <c r="AG12">
-        <v>0.111255</v>
+        <v>0.155994</v>
       </c>
       <c r="AH12">
-        <v>0.12198</v>
+        <v>0.118101</v>
       </c>
       <c r="AI12">
-        <v>0.137918</v>
+        <v>0.078116</v>
       </c>
       <c r="AJ12">
-        <v>0.175749</v>
+        <v>0.083578</v>
       </c>
       <c r="AK12">
-        <v>0.182833</v>
+        <v>0.052511</v>
       </c>
       <c r="AL12">
-        <v>0.195162</v>
+        <v>0.07194399999999999</v>
       </c>
       <c r="AM12">
-        <v>0.149183</v>
+        <v>0.059197</v>
       </c>
       <c r="AN12">
-        <v>0.15664</v>
+        <v>0.037268</v>
       </c>
       <c r="AO12">
-        <v>0.164237</v>
+        <v>0.034263</v>
       </c>
       <c r="AP12">
-        <v>0.174718</v>
+        <v>0.028545</v>
       </c>
       <c r="AQ12">
-        <v>0.160608</v>
+        <v>0.021708</v>
       </c>
       <c r="AR12">
-        <v>0.183398</v>
+        <v>0.030888</v>
       </c>
       <c r="AS12">
-        <v>0.180239</v>
+        <v>0.023179</v>
       </c>
       <c r="AT12">
-        <v>0.168521</v>
+        <v>0.043078</v>
       </c>
       <c r="AU12">
-        <v>0.145878</v>
+        <v>0.040986</v>
       </c>
       <c r="AV12">
-        <v>0.143638</v>
+        <v>0.046018</v>
       </c>
       <c r="AW12">
-        <v>0.13206</v>
+        <v>0.034624</v>
       </c>
       <c r="AX12">
-        <v>0.122595</v>
+        <v>0.028472</v>
       </c>
       <c r="AY12">
-        <v>0.134095</v>
+        <v>0.036454</v>
       </c>
       <c r="AZ12">
-        <v>0.156865</v>
+        <v>0.030018</v>
       </c>
       <c r="BA12">
-        <v>0.147336</v>
+        <v>0.022895</v>
       </c>
       <c r="BB12">
-        <v>0.159003</v>
+        <v>0.017496</v>
       </c>
       <c r="BC12">
-        <v>0.160677</v>
+        <v>0.015158</v>
       </c>
       <c r="BD12">
-        <v>0.129374</v>
+        <v>0.014478</v>
       </c>
       <c r="BE12">
-        <v>0.133781</v>
+        <v>0.01537</v>
       </c>
       <c r="BF12">
-        <v>0.120228</v>
+        <v>0.013303</v>
       </c>
       <c r="BG12">
-        <v>0.135805</v>
+        <v>0.02406</v>
       </c>
       <c r="BH12">
-        <v>0.122649</v>
+        <v>0.01782</v>
       </c>
       <c r="BI12">
-        <v>0.112851</v>
+        <v>0.016721</v>
       </c>
       <c r="BJ12">
-        <v>0.099399</v>
+        <v>0.023396</v>
       </c>
       <c r="BK12">
-        <v>0.102192</v>
+        <v>0.023853</v>
       </c>
       <c r="BL12">
-        <v>0.107989</v>
+        <v>0.025516</v>
       </c>
       <c r="BM12">
-        <v>0.105745</v>
+        <v>0.041744</v>
       </c>
       <c r="BN12">
-        <v>0.09413100000000001</v>
+        <v>0.046186</v>
       </c>
       <c r="BO12">
-        <v>0.097442</v>
+        <v>0.05440273</v>
       </c>
       <c r="BP12">
-        <v>0.09640313</v>
+        <v>0.04248627</v>
       </c>
       <c r="BQ12">
-        <v>0.04983195</v>
+        <v>0.04560806</v>
       </c>
       <c r="BR12">
-        <v>0.08644278999999999</v>
+        <v>0.04265241</v>
       </c>
       <c r="BS12">
-        <v>0.07914180999999999</v>
+        <v>0.04108341</v>
       </c>
       <c r="BT12">
-        <v>0.03013445</v>
+        <v>0.03621976</v>
       </c>
       <c r="BU12">
-        <v>0.06067475</v>
+        <v>0.04714878</v>
       </c>
     </row>
   </sheetData>
@@ -3736,241 +3736,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>4.535554</v>
+        <v>4.225601</v>
       </c>
       <c r="C2">
-        <v>5.47852</v>
+        <v>5.184191</v>
       </c>
       <c r="D2">
-        <v>6.564999</v>
+        <v>6.143742</v>
       </c>
       <c r="E2">
-        <v>6.390499</v>
+        <v>6.073737</v>
       </c>
       <c r="F2">
-        <v>6.68843114</v>
+        <v>6.362681</v>
       </c>
       <c r="G2">
-        <v>7.442726</v>
+        <v>7.047285</v>
       </c>
       <c r="H2">
-        <v>7.696091</v>
+        <v>7.318201</v>
       </c>
       <c r="I2">
-        <v>8.352841</v>
+        <v>7.892767</v>
       </c>
       <c r="J2">
-        <v>8.514483999999999</v>
+        <v>8.085455</v>
       </c>
       <c r="K2">
-        <v>8.842992000000001</v>
+        <v>8.435044</v>
       </c>
       <c r="L2">
-        <v>8.928169</v>
+        <v>8.461785000000001</v>
       </c>
       <c r="M2">
-        <v>9.65992</v>
+        <v>9.205353000000001</v>
       </c>
       <c r="N2">
-        <v>9.836008</v>
+        <v>9.289642000000001</v>
       </c>
       <c r="O2">
-        <v>9.929239000000001</v>
+        <v>9.476811</v>
       </c>
       <c r="P2">
-        <v>9.446453999999999</v>
+        <v>8.987124</v>
       </c>
       <c r="Q2">
-        <v>10.262831</v>
+        <v>9.796716999999999</v>
       </c>
       <c r="R2">
-        <v>10.430222</v>
+        <v>9.985196</v>
       </c>
       <c r="S2">
-        <v>11.141338</v>
+        <v>10.61371</v>
       </c>
       <c r="T2">
-        <v>12.05492</v>
+        <v>11.564135</v>
       </c>
       <c r="U2">
-        <v>12.182127</v>
+        <v>11.738266</v>
       </c>
       <c r="V2">
-        <v>12.145221</v>
+        <v>11.754196</v>
       </c>
       <c r="W2">
-        <v>13.219328</v>
+        <v>12.81195</v>
       </c>
       <c r="X2">
-        <v>13.912582</v>
+        <v>13.507712</v>
       </c>
       <c r="Y2">
-        <v>15.751889</v>
+        <v>15.360447</v>
       </c>
       <c r="Z2">
-        <v>16.029375</v>
+        <v>15.659524</v>
       </c>
       <c r="AA2">
-        <v>16.568687</v>
+        <v>16.182902</v>
       </c>
       <c r="AB2">
-        <v>16.785194</v>
+        <v>16.409542</v>
       </c>
       <c r="AC2">
-        <v>17.126633</v>
+        <v>16.78074</v>
       </c>
       <c r="AD2">
-        <v>17.500143</v>
+        <v>17.169469</v>
       </c>
       <c r="AE2">
-        <v>17.223076</v>
+        <v>16.893343</v>
       </c>
       <c r="AF2">
-        <v>17.447924</v>
+        <v>17.156135</v>
       </c>
       <c r="AG2">
-        <v>18.24626343</v>
+        <v>17.953951</v>
       </c>
       <c r="AH2">
-        <v>19.13993192</v>
+        <v>18.799749</v>
       </c>
       <c r="AI2">
-        <v>19.60520026</v>
+        <v>19.270897</v>
       </c>
       <c r="AJ2">
-        <v>22.00141054</v>
+        <v>21.662856</v>
       </c>
       <c r="AK2">
-        <v>21.81816765</v>
+        <v>21.465637</v>
       </c>
       <c r="AL2">
-        <v>23.58420628</v>
+        <v>23.22204</v>
       </c>
       <c r="AM2">
-        <v>23.63361481</v>
+        <v>23.260825</v>
       </c>
       <c r="AN2">
-        <v>24.0400579</v>
+        <v>23.622424</v>
       </c>
       <c r="AO2">
-        <v>23.53288989</v>
+        <v>23.11831</v>
       </c>
       <c r="AP2">
-        <v>22.54255069</v>
+        <v>22.136992</v>
       </c>
       <c r="AQ2">
-        <v>20.99006186</v>
+        <v>20.648421</v>
       </c>
       <c r="AR2">
-        <v>20.5518031</v>
+        <v>20.151031</v>
       </c>
       <c r="AS2">
-        <v>20.55871541</v>
+        <v>20.193501</v>
       </c>
       <c r="AT2">
-        <v>20.80843342</v>
+        <v>20.458353</v>
       </c>
       <c r="AU2">
-        <v>22.18453292</v>
+        <v>21.832295</v>
       </c>
       <c r="AV2">
-        <v>23.90686496</v>
+        <v>23.536771</v>
       </c>
       <c r="AW2">
-        <v>24.03123636</v>
+        <v>23.650127</v>
       </c>
       <c r="AX2">
-        <v>23.46602689</v>
+        <v>23.14431</v>
       </c>
       <c r="AY2">
-        <v>22.54118854</v>
+        <v>22.190411</v>
       </c>
       <c r="AZ2">
-        <v>21.50919155</v>
+        <v>21.157791</v>
       </c>
       <c r="BA2">
-        <v>20.8244366</v>
+        <v>20.450224</v>
       </c>
       <c r="BB2">
-        <v>19.65115661</v>
+        <v>19.242992</v>
       </c>
       <c r="BC2">
-        <v>20.24897488</v>
+        <v>19.873407</v>
       </c>
       <c r="BD2">
-        <v>19.73396588</v>
+        <v>19.272089</v>
       </c>
       <c r="BE2">
-        <v>20.0442694</v>
+        <v>19.649866</v>
       </c>
       <c r="BF2">
-        <v>20.10031285</v>
+        <v>19.688647</v>
       </c>
       <c r="BG2">
-        <v>20.35089647</v>
+        <v>19.89204</v>
       </c>
       <c r="BH2">
-        <v>20.62781931</v>
+        <v>20.129971</v>
       </c>
       <c r="BI2">
-        <v>20.71403077</v>
+        <v>20.31643</v>
       </c>
       <c r="BJ2">
-        <v>20.86527323</v>
+        <v>20.501846</v>
       </c>
       <c r="BK2">
-        <v>21.21665405</v>
+        <v>20.82988049</v>
       </c>
       <c r="BL2">
-        <v>21.09517382</v>
+        <v>20.72164328</v>
       </c>
       <c r="BM2">
-        <v>21.10050511</v>
+        <v>20.72029359</v>
       </c>
       <c r="BN2">
-        <v>21.58599605</v>
+        <v>21.23378068</v>
       </c>
       <c r="BO2">
-        <v>21.46332563</v>
+        <v>21.09385841</v>
       </c>
       <c r="BP2">
-        <v>21.27666952</v>
+        <v>20.94045979</v>
       </c>
       <c r="BQ2">
-        <v>20.53355691</v>
+        <v>20.24126867</v>
       </c>
       <c r="BR2">
-        <v>20.53472833</v>
+        <v>20.25417324</v>
       </c>
       <c r="BS2">
-        <v>19.78364779</v>
+        <v>19.52550192</v>
       </c>
       <c r="BT2">
-        <v>19.5133111</v>
+        <v>19.21425285</v>
       </c>
       <c r="BU2">
-        <v>19.36002855</v>
+        <v>19.07760146</v>
       </c>
       <c r="BV2">
-        <v>7.050713714</v>
+        <v>6.6768704</v>
       </c>
       <c r="BW2">
-        <v>10.3871228</v>
+        <v>9.9118739</v>
       </c>
       <c r="BX2">
-        <v>15.6262128</v>
+        <v>15.2529825</v>
       </c>
       <c r="BY2">
-        <v>21.304966668</v>
+        <v>20.9532824</v>
       </c>
       <c r="BZ2">
-        <v>22.158141415</v>
+        <v>21.7942212</v>
       </c>
       <c r="CA2">
-        <v>20.380505432</v>
+        <v>19.9673457</v>
       </c>
       <c r="CB2">
-        <v>20.6940725075</v>
+        <v>20.36288003166667</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -6443,241 +6443,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.658283</v>
+        <v>0.598079</v>
       </c>
       <c r="C2">
-        <v>0.689438</v>
+        <v>0.628749</v>
       </c>
       <c r="D2">
-        <v>0.605652</v>
+        <v>0.541782</v>
       </c>
       <c r="E2">
-        <v>0.657843</v>
+        <v>0.591174</v>
       </c>
       <c r="F2">
-        <v>0.684216</v>
+        <v>0.6203340000000001</v>
       </c>
       <c r="G2">
-        <v>0.601264</v>
+        <v>0.535794</v>
       </c>
       <c r="H2">
-        <v>0.760066</v>
+        <v>0.636377</v>
       </c>
       <c r="I2">
-        <v>0.656429</v>
+        <v>0.562784</v>
       </c>
       <c r="J2">
-        <v>0.745736</v>
+        <v>0.66677</v>
       </c>
       <c r="K2">
-        <v>0.773813</v>
+        <v>0.715562</v>
       </c>
       <c r="L2">
-        <v>0.807623</v>
+        <v>0.766984</v>
       </c>
       <c r="M2">
-        <v>1.078949</v>
+        <v>0.952302</v>
       </c>
       <c r="N2">
-        <v>1.222877</v>
+        <v>1.125437</v>
       </c>
       <c r="O2">
-        <v>1.300978</v>
+        <v>1.21464</v>
       </c>
       <c r="P2">
-        <v>1.538064</v>
+        <v>1.472432</v>
       </c>
       <c r="Q2">
-        <v>1.483514</v>
+        <v>1.430748</v>
       </c>
       <c r="R2">
-        <v>1.631332</v>
+        <v>1.578079</v>
       </c>
       <c r="S2">
-        <v>1.645899</v>
+        <v>1.579883</v>
       </c>
       <c r="T2">
-        <v>1.68057</v>
+        <v>1.62151</v>
       </c>
       <c r="U2">
-        <v>1.846065</v>
+        <v>1.807157</v>
       </c>
       <c r="V2">
-        <v>2.655029</v>
+        <v>2.61275</v>
       </c>
       <c r="W2">
-        <v>2.307734</v>
+        <v>2.27551</v>
       </c>
       <c r="X2">
-        <v>2.774701</v>
+        <v>2.73718</v>
       </c>
       <c r="Y2">
-        <v>1.899132</v>
+        <v>1.87045</v>
       </c>
       <c r="Z2">
-        <v>2.343715</v>
+        <v>2.310425</v>
       </c>
       <c r="AA2">
-        <v>2.250423</v>
+        <v>2.221112</v>
       </c>
       <c r="AB2">
-        <v>2.41236</v>
+        <v>2.38891</v>
       </c>
       <c r="AC2">
-        <v>1.77136</v>
+        <v>1.742832</v>
       </c>
       <c r="AD2">
-        <v>1.882339</v>
+        <v>1.85731</v>
       </c>
       <c r="AE2">
-        <v>1.997598</v>
+        <v>1.971298</v>
       </c>
       <c r="AF2">
-        <v>1.970105</v>
+        <v>1.945826</v>
       </c>
       <c r="AG2">
-        <v>2.367087</v>
+        <v>2.343195</v>
       </c>
       <c r="AH2">
-        <v>2.157339</v>
+        <v>2.132522</v>
       </c>
       <c r="AI2">
-        <v>2.41407</v>
+        <v>2.388255</v>
       </c>
       <c r="AJ2">
-        <v>2.684278</v>
+        <v>2.661862</v>
       </c>
       <c r="AK2">
-        <v>2.85424</v>
+        <v>2.850527</v>
       </c>
       <c r="AL2">
-        <v>3.183075</v>
+        <v>3.181652</v>
       </c>
       <c r="AM2">
-        <v>3.403337</v>
+        <v>3.401535</v>
       </c>
       <c r="AN2">
-        <v>3.293825</v>
+        <v>3.292567</v>
       </c>
       <c r="AO2">
-        <v>3.237846</v>
+        <v>3.236325</v>
       </c>
       <c r="AP2">
-        <v>3.334349</v>
+        <v>3.333108</v>
       </c>
       <c r="AQ2">
-        <v>2.890072</v>
+        <v>2.888146</v>
       </c>
       <c r="AR2">
-        <v>3.161402</v>
+        <v>3.156323</v>
       </c>
       <c r="AS2">
-        <v>3.304754</v>
+        <v>3.299218</v>
       </c>
       <c r="AT2">
-        <v>3.15279</v>
+        <v>3.147757</v>
       </c>
       <c r="AU2">
-        <v>2.919453</v>
+        <v>2.914539</v>
       </c>
       <c r="AV2">
-        <v>2.835549</v>
+        <v>2.83076</v>
       </c>
       <c r="AW2">
-        <v>2.854424</v>
+        <v>2.850286</v>
       </c>
       <c r="AX2">
-        <v>2.81428</v>
+        <v>2.809784</v>
       </c>
       <c r="AY2">
-        <v>2.594883</v>
+        <v>2.59042</v>
       </c>
       <c r="AZ2">
-        <v>2.497684</v>
+        <v>2.493485</v>
       </c>
       <c r="BA2">
-        <v>2.761346</v>
+        <v>2.759021</v>
       </c>
       <c r="BB2">
-        <v>2.754974</v>
+        <v>2.749904</v>
       </c>
       <c r="BC2">
-        <v>2.911124</v>
+        <v>2.900951</v>
       </c>
       <c r="BD2">
-        <v>3.036884</v>
+        <v>3.030766</v>
       </c>
       <c r="BE2">
-        <v>3.189642</v>
+        <v>3.182933</v>
       </c>
       <c r="BF2">
-        <v>3.058948</v>
+        <v>3.054603</v>
       </c>
       <c r="BG2">
-        <v>2.911866</v>
+        <v>2.907179</v>
       </c>
       <c r="BH2">
-        <v>2.580114</v>
+        <v>2.57365</v>
       </c>
       <c r="BI2">
-        <v>2.247839</v>
+        <v>2.243715</v>
       </c>
       <c r="BJ2">
-        <v>2.438673</v>
+        <v>2.436657</v>
       </c>
       <c r="BK2">
-        <v>2.946866</v>
+        <v>2.943139</v>
       </c>
       <c r="BL2">
-        <v>2.908735</v>
+        <v>2.905593</v>
       </c>
       <c r="BM2">
-        <v>3.227726</v>
+        <v>3.225158</v>
       </c>
       <c r="BN2">
-        <v>3.146736</v>
+        <v>3.144426</v>
       </c>
       <c r="BO2">
-        <v>3.154332</v>
+        <v>3.153322</v>
       </c>
       <c r="BP2">
-        <v>3.100125</v>
+        <v>3.098894</v>
       </c>
       <c r="BQ2">
-        <v>3.371079</v>
+        <v>3.367691</v>
       </c>
       <c r="BR2">
-        <v>3.0873043</v>
+        <v>3.0847003</v>
       </c>
       <c r="BS2">
-        <v>3.17127021</v>
+        <v>3.16852421</v>
       </c>
       <c r="BT2">
-        <v>2.85305201</v>
+        <v>2.85098201</v>
       </c>
       <c r="BU2">
-        <v>2.91610131</v>
+        <v>2.91385131</v>
       </c>
       <c r="BV2">
-        <v>0.6832739999999999</v>
+        <v>0.6097405</v>
       </c>
       <c r="BW2">
-        <v>1.4235871</v>
+        <v>1.3549172</v>
       </c>
       <c r="BX2">
-        <v>2.2294391</v>
+        <v>2.1987777</v>
       </c>
       <c r="BY2">
-        <v>2.7565202</v>
+        <v>2.7434266</v>
       </c>
       <c r="BZ2">
-        <v>2.9861956</v>
+        <v>2.9820341</v>
       </c>
       <c r="CA2">
-        <v>2.7950421</v>
+        <v>2.7896207</v>
       </c>
       <c r="CB2">
-        <v>3.026833319166667</v>
+        <v>3.024411485833333</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -9150,241 +9150,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.541905</v>
+        <v>0.538115</v>
       </c>
       <c r="C2">
-        <v>0.854641</v>
+        <v>0.850661</v>
       </c>
       <c r="D2">
-        <v>0.883472</v>
+        <v>0.877592</v>
       </c>
       <c r="E2">
-        <v>0.894427</v>
+        <v>0.887857</v>
       </c>
       <c r="F2">
-        <v>1.06088</v>
+        <v>1.05192</v>
       </c>
       <c r="G2">
-        <v>1.133449</v>
+        <v>1.127599</v>
       </c>
       <c r="H2">
-        <v>1.198859</v>
+        <v>1.192819</v>
       </c>
       <c r="I2">
-        <v>1.218626</v>
+        <v>1.213206</v>
       </c>
       <c r="J2">
-        <v>1.280414</v>
+        <v>1.274514</v>
       </c>
       <c r="K2">
-        <v>1.32423</v>
+        <v>1.31775</v>
       </c>
       <c r="L2">
-        <v>1.437114</v>
+        <v>1.428774</v>
       </c>
       <c r="M2">
-        <v>1.638894</v>
+        <v>1.627194</v>
       </c>
       <c r="N2">
-        <v>1.830962</v>
+        <v>1.823922</v>
       </c>
       <c r="O2">
-        <v>2.041385</v>
+        <v>2.035815</v>
       </c>
       <c r="P2">
-        <v>2.299935</v>
+        <v>2.292655</v>
       </c>
       <c r="Q2">
-        <v>2.496308</v>
+        <v>2.485448</v>
       </c>
       <c r="R2">
-        <v>2.770156</v>
+        <v>2.721946</v>
       </c>
       <c r="S2">
-        <v>2.929175</v>
+        <v>2.900855</v>
       </c>
       <c r="T2">
-        <v>3.311766</v>
+        <v>3.283196</v>
       </c>
       <c r="U2">
-        <v>3.526924</v>
+        <v>3.501064</v>
       </c>
       <c r="V2">
-        <v>3.73766</v>
+        <v>3.702799</v>
       </c>
       <c r="W2">
-        <v>4.004188</v>
+        <v>3.969536</v>
       </c>
       <c r="X2">
-        <v>4.287718</v>
+        <v>4.254467</v>
       </c>
       <c r="Y2">
-        <v>4.563576</v>
+        <v>4.528632</v>
       </c>
       <c r="Z2">
-        <v>4.399478</v>
+        <v>4.362193</v>
       </c>
       <c r="AA2">
-        <v>4.180811</v>
+        <v>4.163217</v>
       </c>
       <c r="AB2">
-        <v>4.313664</v>
+        <v>4.29793</v>
       </c>
       <c r="AC2">
-        <v>4.861023</v>
+        <v>4.846688</v>
       </c>
       <c r="AD2">
-        <v>4.9817</v>
+        <v>4.964498</v>
       </c>
       <c r="AE2">
-        <v>4.774123</v>
+        <v>4.756655</v>
       </c>
       <c r="AF2">
-        <v>4.75384</v>
+        <v>4.734651</v>
       </c>
       <c r="AG2">
-        <v>5.084499</v>
+        <v>5.066657</v>
       </c>
       <c r="AH2">
-        <v>5.225342</v>
+        <v>5.208616</v>
       </c>
       <c r="AI2">
-        <v>5.817624589999999</v>
+        <v>5.79815</v>
       </c>
       <c r="AJ2">
-        <v>5.71927274</v>
+        <v>5.701335</v>
       </c>
       <c r="AK2">
-        <v>5.817589</v>
+        <v>5.79657</v>
       </c>
       <c r="AL2">
-        <v>6.383568589999999</v>
+        <v>6.367081</v>
       </c>
       <c r="AM2">
-        <v>6.822735689999999</v>
+        <v>6.796847</v>
       </c>
       <c r="AN2">
-        <v>6.89969165</v>
+        <v>6.880395</v>
       </c>
       <c r="AO2">
-        <v>7.07479458</v>
+        <v>7.055134</v>
       </c>
       <c r="AP2">
-        <v>7.40677833</v>
+        <v>7.37484</v>
       </c>
       <c r="AQ2">
-        <v>7.77827394</v>
+        <v>7.757409</v>
       </c>
       <c r="AR2">
-        <v>8.11308968</v>
+        <v>8.096121</v>
       </c>
       <c r="AS2">
-        <v>8.131494500000001</v>
+        <v>8.114872</v>
       </c>
       <c r="AT2">
-        <v>8.777609099999999</v>
+        <v>8.752131</v>
       </c>
       <c r="AU2">
-        <v>8.957628160000001</v>
+        <v>8.929452</v>
       </c>
       <c r="AV2">
-        <v>8.808979750000001</v>
+        <v>8.764360999999999</v>
       </c>
       <c r="AW2">
-        <v>8.798728619999999</v>
+        <v>8.757859</v>
       </c>
       <c r="AX2">
-        <v>9.14127805</v>
+        <v>9.106172000000001</v>
       </c>
       <c r="AY2">
-        <v>9.48022857</v>
+        <v>9.448834</v>
       </c>
       <c r="AZ2">
-        <v>9.850729470000001</v>
+        <v>9.80109775</v>
       </c>
       <c r="BA2">
-        <v>10.23587058</v>
+        <v>10.19555134</v>
       </c>
       <c r="BB2">
-        <v>10.60898689</v>
+        <v>10.54580503</v>
       </c>
       <c r="BC2">
-        <v>10.96586836</v>
+        <v>10.89591216</v>
       </c>
       <c r="BD2">
-        <v>11.08423353</v>
+        <v>11.069241</v>
       </c>
       <c r="BE2">
-        <v>11.12842828</v>
+        <v>11.11377</v>
       </c>
       <c r="BF2">
-        <v>11.12211205</v>
+        <v>11.108174</v>
       </c>
       <c r="BG2">
-        <v>11.39038905</v>
+        <v>11.376723</v>
       </c>
       <c r="BH2">
-        <v>10.85413841</v>
+        <v>10.841484</v>
       </c>
       <c r="BI2">
-        <v>11.06424202</v>
+        <v>11.0525264</v>
       </c>
       <c r="BJ2">
-        <v>11.52739418</v>
+        <v>11.51646007</v>
       </c>
       <c r="BK2">
-        <v>11.43380945</v>
+        <v>11.41975684</v>
       </c>
       <c r="BL2">
-        <v>11.919943</v>
+        <v>11.90552507</v>
       </c>
       <c r="BM2">
-        <v>12.27087358</v>
+        <v>12.24836883</v>
       </c>
       <c r="BN2">
-        <v>12.84881499</v>
+        <v>12.80278101</v>
       </c>
       <c r="BO2">
-        <v>12.74263571</v>
+        <v>12.70876925</v>
       </c>
       <c r="BP2">
-        <v>13.03027933</v>
+        <v>13.0001219</v>
       </c>
       <c r="BQ2">
-        <v>12.76178468</v>
+        <v>12.73293837</v>
       </c>
       <c r="BR2">
-        <v>13.33971186</v>
+        <v>13.31087391</v>
       </c>
       <c r="BS2">
-        <v>13.47898153</v>
+        <v>13.44238633</v>
       </c>
       <c r="BT2">
-        <v>13.28119249</v>
+        <v>13.24042797</v>
       </c>
       <c r="BU2">
-        <v>13.54169005</v>
+        <v>13.49884552</v>
       </c>
       <c r="BV2">
-        <v>1.0390903</v>
+        <v>1.0332033</v>
       </c>
       <c r="BW2">
-        <v>2.4282619</v>
+        <v>2.4100869</v>
       </c>
       <c r="BX2">
-        <v>4.4103941</v>
+        <v>4.3846615</v>
       </c>
       <c r="BY2">
-        <v>5.959895784</v>
+        <v>5.9405436</v>
       </c>
       <c r="BZ2">
-        <v>8.539408869999999</v>
+        <v>8.5102051</v>
       </c>
       <c r="CA2">
-        <v>10.830499864</v>
+        <v>10.800028468</v>
       </c>
       <c r="CB2">
-        <v>12.68142590416667</v>
+        <v>12.65227125583333</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -11857,241 +11857,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.813845</v>
+        <v>0.705243</v>
       </c>
       <c r="C2">
-        <v>0.613183</v>
+        <v>0.490423</v>
       </c>
       <c r="D2">
-        <v>0.491494</v>
+        <v>0.373336</v>
       </c>
       <c r="E2">
-        <v>0.460725</v>
+        <v>0.324076</v>
       </c>
       <c r="F2">
-        <v>0.492745</v>
+        <v>0.37653</v>
       </c>
       <c r="G2">
-        <v>0.508804</v>
+        <v>0.374041</v>
       </c>
       <c r="H2">
-        <v>0.566062</v>
+        <v>0.437447</v>
       </c>
       <c r="I2">
-        <v>0.50971</v>
+        <v>0.399103</v>
       </c>
       <c r="J2">
-        <v>0.598867</v>
+        <v>0.468386</v>
       </c>
       <c r="K2">
-        <v>0.534787</v>
+        <v>0.426488</v>
       </c>
       <c r="L2">
-        <v>0.572691</v>
+        <v>0.435591</v>
       </c>
       <c r="M2">
-        <v>0.639387</v>
+        <v>0.492031</v>
       </c>
       <c r="N2">
-        <v>0.608415</v>
+        <v>0.456797</v>
       </c>
       <c r="O2">
-        <v>0.6012960000000001</v>
+        <v>0.469897</v>
       </c>
       <c r="P2">
-        <v>0.688607</v>
+        <v>0.546563</v>
       </c>
       <c r="Q2">
-        <v>0.670591</v>
+        <v>0.525603</v>
       </c>
       <c r="R2">
-        <v>0.698217</v>
+        <v>0.55704</v>
       </c>
       <c r="S2">
-        <v>0.796368</v>
+        <v>0.637177</v>
       </c>
       <c r="T2">
-        <v>0.815868</v>
+        <v>0.64483</v>
       </c>
       <c r="U2">
-        <v>0.797776</v>
+        <v>0.6430169999999999</v>
       </c>
       <c r="V2">
-        <v>0.9182940000000001</v>
+        <v>0.763294</v>
       </c>
       <c r="W2">
-        <v>0.93263</v>
+        <v>0.76193</v>
       </c>
       <c r="X2">
-        <v>0.99899</v>
+        <v>0.81809</v>
       </c>
       <c r="Y2">
-        <v>1.230622</v>
+        <v>1.054422</v>
       </c>
       <c r="Z2">
-        <v>1.058864</v>
+        <v>0.857791</v>
       </c>
       <c r="AA2">
-        <v>1.22368</v>
+        <v>1.030352</v>
       </c>
       <c r="AB2">
-        <v>1.402512</v>
+        <v>1.19628</v>
       </c>
       <c r="AC2">
-        <v>1.4398</v>
+        <v>1.229452</v>
       </c>
       <c r="AD2">
-        <v>1.473923</v>
+        <v>1.270598</v>
       </c>
       <c r="AE2">
-        <v>1.693674</v>
+        <v>1.48153</v>
       </c>
       <c r="AF2">
-        <v>1.959309</v>
+        <v>1.759953</v>
       </c>
       <c r="AG2">
-        <v>2.00815</v>
+        <v>1.927713</v>
       </c>
       <c r="AH2">
-        <v>1.75886</v>
+        <v>1.642655</v>
       </c>
       <c r="AI2">
-        <v>1.236739</v>
+        <v>1.219982</v>
       </c>
       <c r="AJ2">
-        <v>1.278264</v>
+        <v>1.210145</v>
       </c>
       <c r="AK2">
-        <v>1.812504</v>
+        <v>1.690782</v>
       </c>
       <c r="AL2">
-        <v>1.736082</v>
+        <v>1.633257</v>
       </c>
       <c r="AM2">
-        <v>1.86141</v>
+        <v>1.733892</v>
       </c>
       <c r="AN2">
-        <v>1.748535</v>
+        <v>1.65176</v>
       </c>
       <c r="AO2">
-        <v>1.87155493</v>
+        <v>1.737353</v>
       </c>
       <c r="AP2">
-        <v>1.65604429</v>
+        <v>1.53161</v>
       </c>
       <c r="AQ2">
-        <v>1.66819935</v>
+        <v>1.499754</v>
       </c>
       <c r="AR2">
-        <v>1.46515307</v>
+        <v>1.322906</v>
       </c>
       <c r="AS2">
-        <v>1.33940773</v>
+        <v>1.197736</v>
       </c>
       <c r="AT2">
-        <v>1.44402056</v>
+        <v>1.290564</v>
       </c>
       <c r="AU2">
-        <v>1.63013723</v>
+        <v>1.506406</v>
       </c>
       <c r="AV2">
-        <v>1.66795481</v>
+        <v>1.574038</v>
       </c>
       <c r="AW2">
-        <v>1.74750487</v>
+        <v>1.634196</v>
       </c>
       <c r="AX2">
-        <v>1.44584656</v>
+        <v>1.405716</v>
       </c>
       <c r="AY2">
-        <v>1.56185081</v>
+        <v>1.448699</v>
       </c>
       <c r="AZ2">
-        <v>1.79046756</v>
+        <v>1.713044</v>
       </c>
       <c r="BA2">
-        <v>1.938164</v>
+        <v>1.854947</v>
       </c>
       <c r="BB2">
-        <v>2.06677182</v>
+        <v>1.988033</v>
       </c>
       <c r="BC2">
-        <v>1.86626829</v>
+        <v>1.788864</v>
       </c>
       <c r="BD2">
-        <v>1.65538349</v>
+        <v>1.590914</v>
       </c>
       <c r="BE2">
-        <v>1.77288341</v>
+        <v>1.700847</v>
       </c>
       <c r="BF2">
-        <v>1.6893984</v>
+        <v>1.681106</v>
       </c>
       <c r="BG2">
-        <v>1.82084691</v>
+        <v>1.81523</v>
       </c>
       <c r="BH2">
-        <v>1.93091042</v>
+        <v>1.92169</v>
       </c>
       <c r="BI2">
-        <v>2.06098816</v>
+        <v>2.05547798</v>
       </c>
       <c r="BJ2">
-        <v>1.95707251</v>
+        <v>1.95542251</v>
       </c>
       <c r="BK2">
-        <v>1.93742567</v>
+        <v>1.93182105</v>
       </c>
       <c r="BL2">
-        <v>1.97647636</v>
+        <v>1.96993551</v>
       </c>
       <c r="BM2">
-        <v>2.05052741</v>
+        <v>2.03972039</v>
       </c>
       <c r="BN2">
-        <v>1.92455819</v>
+        <v>1.9147502</v>
       </c>
       <c r="BO2">
-        <v>1.69169577</v>
+        <v>1.67948277</v>
       </c>
       <c r="BP2">
-        <v>1.67282872</v>
+        <v>1.65914415</v>
       </c>
       <c r="BQ2">
-        <v>1.78905503</v>
+        <v>1.78022551</v>
       </c>
       <c r="BR2">
-        <v>1.74163399</v>
+        <v>1.73446224</v>
       </c>
       <c r="BS2">
-        <v>2.05849251</v>
+        <v>2.05070138</v>
       </c>
       <c r="BT2">
-        <v>1.99280295</v>
+        <v>1.98437662</v>
       </c>
       <c r="BU2">
-        <v>1.96662778</v>
+        <v>1.95852772</v>
       </c>
       <c r="BV2">
-        <v>0.5590222</v>
+        <v>0.4375073</v>
       </c>
       <c r="BW2">
-        <v>0.6889216</v>
+        <v>0.5408546</v>
       </c>
       <c r="BX2">
-        <v>1.2372989</v>
+        <v>1.0463739</v>
       </c>
       <c r="BY2">
-        <v>1.727140793</v>
+        <v>1.6207492</v>
       </c>
       <c r="BZ2">
-        <v>1.562611928</v>
+        <v>1.4411625</v>
       </c>
       <c r="CA2">
-        <v>1.859208246</v>
+        <v>1.811015298</v>
       </c>
       <c r="CB2">
-        <v>1.896599740833333</v>
+        <v>1.888214170833333</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -14564,106 +14564,106 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0398</v>
+        <v>0.0396</v>
       </c>
       <c r="C2">
-        <v>0.0427</v>
+        <v>0.0425</v>
       </c>
       <c r="D2">
-        <v>0.0456</v>
+        <v>0.0454</v>
       </c>
       <c r="E2">
-        <v>0.0495</v>
+        <v>0.0493</v>
       </c>
       <c r="F2">
-        <v>0.047602</v>
+        <v>0.047402</v>
       </c>
       <c r="G2">
-        <v>0.049206</v>
+        <v>0.048906</v>
       </c>
       <c r="H2">
-        <v>0.053221</v>
+        <v>0.052921</v>
       </c>
       <c r="I2">
-        <v>0.058037</v>
+        <v>0.057737</v>
       </c>
       <c r="J2">
-        <v>0.052781</v>
+        <v>0.052481</v>
       </c>
       <c r="K2">
-        <v>0.064598</v>
+        <v>0.06429799999999999</v>
       </c>
       <c r="L2">
-        <v>0.06865599999999999</v>
+        <v>0.068256</v>
       </c>
       <c r="M2">
-        <v>0.078389</v>
+        <v>0.077989</v>
       </c>
       <c r="N2">
-        <v>0.067339</v>
+        <v>0.066939</v>
       </c>
       <c r="O2">
-        <v>0.07480100000000001</v>
+        <v>0.07440099999999999</v>
       </c>
       <c r="P2">
-        <v>0.117467</v>
+        <v>0.117067</v>
       </c>
       <c r="Q2">
-        <v>0.125515</v>
+        <v>0.125015</v>
       </c>
       <c r="R2">
-        <v>0.149012</v>
+        <v>0.148512</v>
       </c>
       <c r="S2">
-        <v>0.15296</v>
+        <v>0.15246</v>
       </c>
       <c r="T2">
-        <v>0.165291</v>
+        <v>0.164791</v>
       </c>
       <c r="U2">
-        <v>0.152437</v>
+        <v>0.151937</v>
       </c>
       <c r="V2">
-        <v>0.12696</v>
+        <v>0.12636</v>
       </c>
       <c r="W2">
-        <v>0.196386</v>
+        <v>0.195786</v>
       </c>
       <c r="X2">
-        <v>0.240508</v>
+        <v>0.239908</v>
       </c>
       <c r="Y2">
-        <v>0.278846</v>
+        <v>0.278246</v>
       </c>
       <c r="Z2">
-        <v>0.315084</v>
+        <v>0.314484</v>
       </c>
       <c r="AA2">
-        <v>0.256256</v>
+        <v>0.255956</v>
       </c>
       <c r="AB2">
-        <v>0.331448</v>
+        <v>0.331148</v>
       </c>
       <c r="AC2">
-        <v>0.514267</v>
+        <v>0.513967</v>
       </c>
       <c r="AD2">
-        <v>0.340601</v>
+        <v>0.340401</v>
       </c>
       <c r="AE2">
-        <v>0.348234</v>
+        <v>0.348226</v>
       </c>
       <c r="AF2">
-        <v>0.440822</v>
+        <v>0.440796</v>
       </c>
       <c r="AG2">
-        <v>0.445177</v>
+        <v>0.445165</v>
       </c>
       <c r="AH2">
-        <v>0.442042</v>
+        <v>0.442035</v>
       </c>
       <c r="AI2">
-        <v>0.48485</v>
+        <v>0.484819</v>
       </c>
       <c r="AJ2">
         <v>0.506574</v>
@@ -14672,10 +14672,10 @@
         <v>0.476809</v>
       </c>
       <c r="AL2">
-        <v>0.614242</v>
+        <v>0.614237</v>
       </c>
       <c r="AM2">
-        <v>0.717935</v>
+        <v>0.717934</v>
       </c>
       <c r="AN2">
         <v>0.761203</v>
@@ -14699,106 +14699,106 @@
         <v>0.766904</v>
       </c>
       <c r="AU2">
-        <v>0.815096</v>
+        <v>0.81508</v>
       </c>
       <c r="AV2">
-        <v>0.664413</v>
+        <v>0.664265</v>
       </c>
       <c r="AW2">
-        <v>0.875963</v>
+        <v>0.84168</v>
       </c>
       <c r="AX2">
-        <v>0.8727180999999999</v>
+        <v>0.864883</v>
       </c>
       <c r="AY2">
-        <v>0.790337</v>
+        <v>0.789591</v>
       </c>
       <c r="AZ2">
-        <v>0.716195</v>
+        <v>0.716176</v>
       </c>
       <c r="BA2">
-        <v>0.74619</v>
+        <v>0.746165</v>
       </c>
       <c r="BB2">
-        <v>0.769212</v>
+        <v>0.769198</v>
       </c>
       <c r="BC2">
-        <v>0.731518</v>
+        <v>0.73149</v>
       </c>
       <c r="BD2">
-        <v>0.715508</v>
+        <v>0.715427</v>
       </c>
       <c r="BE2">
-        <v>0.741869</v>
+        <v>0.741718</v>
       </c>
       <c r="BF2">
-        <v>0.636089</v>
+        <v>0.635864</v>
       </c>
       <c r="BG2">
-        <v>0.649761</v>
+        <v>0.649342</v>
       </c>
       <c r="BH2">
-        <v>0.601102</v>
+        <v>0.6008</v>
       </c>
       <c r="BI2">
-        <v>0.5825274</v>
+        <v>0.581893</v>
       </c>
       <c r="BJ2">
-        <v>0.5856461799999999</v>
+        <v>0.58507381</v>
       </c>
       <c r="BK2">
-        <v>0.58193522</v>
+        <v>0.58115229</v>
       </c>
       <c r="BL2">
-        <v>0.60240094</v>
+        <v>0.6008694499999999</v>
       </c>
       <c r="BM2">
-        <v>0.58448427</v>
+        <v>0.58285902</v>
       </c>
       <c r="BN2">
-        <v>0.57685707</v>
+        <v>0.5758409</v>
       </c>
       <c r="BO2">
-        <v>0.55287761</v>
+        <v>0.55177475</v>
       </c>
       <c r="BP2">
-        <v>0.47659665</v>
+        <v>0.47466765</v>
       </c>
       <c r="BQ2">
-        <v>0.4744585</v>
+        <v>0.4716061</v>
       </c>
       <c r="BR2">
-        <v>0.4575044599999999</v>
+        <v>0.4563110400000001</v>
       </c>
       <c r="BS2">
-        <v>0.47003137</v>
+        <v>0.46910137</v>
       </c>
       <c r="BT2">
-        <v>0.42554277</v>
+        <v>0.4246732</v>
       </c>
       <c r="BU2">
-        <v>0.38890183</v>
+        <v>0.38786302</v>
       </c>
       <c r="BV2">
-        <v>0.05030450000000001</v>
+        <v>0.0500545</v>
       </c>
       <c r="BW2">
-        <v>0.1151867</v>
+        <v>0.1147367</v>
       </c>
       <c r="BX2">
-        <v>0.294859</v>
+        <v>0.2944482</v>
       </c>
       <c r="BY2">
-        <v>0.568163</v>
+        <v>0.5681548</v>
       </c>
       <c r="BZ2">
-        <v>0.8246288099999999</v>
+        <v>0.820326</v>
       </c>
       <c r="CA2">
-        <v>0.68899714</v>
+        <v>0.6888072999999999</v>
       </c>
       <c r="CB2">
-        <v>0.5147697391666667</v>
+        <v>0.5134827166666667</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -17271,241 +17271,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.17166</v>
+        <v>0.16646</v>
       </c>
       <c r="C2">
-        <v>0.20256</v>
+        <v>0.19736</v>
       </c>
       <c r="D2">
-        <v>0.23706</v>
+        <v>0.23186</v>
       </c>
       <c r="E2">
-        <v>0.23755</v>
+        <v>0.23235</v>
       </c>
       <c r="F2">
-        <v>0.30565</v>
+        <v>0.29945</v>
       </c>
       <c r="G2">
-        <v>0.41565</v>
+        <v>0.40945</v>
       </c>
       <c r="H2">
-        <v>0.48094</v>
+        <v>0.47374</v>
       </c>
       <c r="I2">
-        <v>0.69735</v>
+        <v>0.6900500000000001</v>
       </c>
       <c r="J2">
-        <v>1.161425</v>
+        <v>1.154125</v>
       </c>
       <c r="K2">
-        <v>2.435524</v>
+        <v>2.427024</v>
       </c>
       <c r="L2">
-        <v>3.890042</v>
+        <v>3.880942</v>
       </c>
       <c r="M2">
-        <v>5.691225</v>
+        <v>5.678525</v>
       </c>
       <c r="N2">
-        <v>7.567216</v>
+        <v>7.560716</v>
       </c>
       <c r="O2">
-        <v>7.642091</v>
+        <v>7.627791</v>
       </c>
       <c r="P2">
-        <v>10.265112</v>
+        <v>10.247812</v>
       </c>
       <c r="Q2">
-        <v>8.172072999999999</v>
+        <v>8.148773</v>
       </c>
       <c r="R2">
-        <v>10.17563</v>
+        <v>10.15063</v>
       </c>
       <c r="S2">
-        <v>11.222451</v>
+        <v>11.185051</v>
       </c>
       <c r="T2">
-        <v>11.934201</v>
+        <v>11.912601</v>
       </c>
       <c r="U2">
-        <v>10.355884</v>
+        <v>10.317584</v>
       </c>
       <c r="V2">
-        <v>13.835996</v>
+        <v>13.800598</v>
       </c>
       <c r="W2">
-        <v>12.15141</v>
+        <v>12.117822</v>
       </c>
       <c r="X2">
-        <v>5.675014</v>
+        <v>5.642045</v>
       </c>
       <c r="Y2">
-        <v>3.230662</v>
+        <v>3.196579</v>
       </c>
       <c r="Z2">
-        <v>5.537748</v>
+        <v>5.485939</v>
       </c>
       <c r="AA2">
-        <v>4.702513</v>
+        <v>4.624324</v>
       </c>
       <c r="AB2">
-        <v>6.178619</v>
+        <v>6.10817</v>
       </c>
       <c r="AC2">
-        <v>4.429203</v>
+        <v>4.36362</v>
       </c>
       <c r="AD2">
-        <v>6.288086</v>
+        <v>6.208978</v>
       </c>
       <c r="AE2">
-        <v>7.578916</v>
+        <v>7.500174</v>
       </c>
       <c r="AF2">
-        <v>6.954502</v>
+        <v>6.869174</v>
       </c>
       <c r="AG2">
-        <v>7.518413</v>
+        <v>7.406238</v>
       </c>
       <c r="AH2">
-        <v>8.688487</v>
+        <v>8.514976000000001</v>
       </c>
       <c r="AI2">
-        <v>6.817601</v>
+        <v>6.625969</v>
       </c>
       <c r="AJ2">
-        <v>9.598077</v>
+        <v>9.427075</v>
       </c>
       <c r="AK2">
-        <v>10.882342</v>
+        <v>10.700569</v>
       </c>
       <c r="AL2">
-        <v>13.071505</v>
+        <v>12.947271</v>
       </c>
       <c r="AM2">
-        <v>11.01937</v>
+        <v>10.906565</v>
       </c>
       <c r="AN2">
-        <v>13.837493</v>
+        <v>13.689956</v>
       </c>
       <c r="AO2">
-        <v>15.346376</v>
+        <v>15.199358</v>
       </c>
       <c r="AP2">
-        <v>14.029583</v>
+        <v>13.83347</v>
       </c>
       <c r="AQ2">
-        <v>14.314703</v>
+        <v>14.209423</v>
       </c>
       <c r="AR2">
-        <v>14.508946</v>
+        <v>14.42563</v>
       </c>
       <c r="AS2">
-        <v>15.582316</v>
+        <v>15.470944</v>
       </c>
       <c r="AT2">
-        <v>20.422424</v>
+        <v>20.302484</v>
       </c>
       <c r="AU2">
-        <v>17.328331</v>
+        <v>17.07418</v>
       </c>
       <c r="AV2">
-        <v>17.275757</v>
+        <v>17.05398</v>
       </c>
       <c r="AW2">
-        <v>14.594996</v>
+        <v>14.412801</v>
       </c>
       <c r="AX2">
-        <v>8.214480999999999</v>
+        <v>8.012794</v>
       </c>
       <c r="AY2">
-        <v>14.377065</v>
+        <v>14.142414</v>
       </c>
       <c r="AZ2">
-        <v>16.060065</v>
+        <v>15.809076</v>
       </c>
       <c r="BA2">
-        <v>12.935713</v>
+        <v>12.694645</v>
       </c>
       <c r="BB2">
-        <v>13.964524</v>
+        <v>13.713109</v>
       </c>
       <c r="BC2">
-        <v>10.871316</v>
+        <v>10.55335</v>
       </c>
       <c r="BD2">
-        <v>16.026027</v>
+        <v>15.626948</v>
       </c>
       <c r="BE2">
-        <v>15.109948</v>
+        <v>14.693912</v>
       </c>
       <c r="BF2">
-        <v>12.559152</v>
+        <v>12.253369</v>
       </c>
       <c r="BG2">
-        <v>12.38183</v>
+        <v>12.05629</v>
       </c>
       <c r="BH2">
-        <v>12.558376</v>
+        <v>12.159008</v>
       </c>
       <c r="BI2">
-        <v>11.84028</v>
+        <v>11.46532</v>
       </c>
       <c r="BJ2">
-        <v>8.178309</v>
+        <v>7.804484</v>
       </c>
       <c r="BK2">
-        <v>12.71924013</v>
+        <v>12.30888913</v>
       </c>
       <c r="BL2">
-        <v>8.70865607</v>
+        <v>8.267789070000001</v>
       </c>
       <c r="BM2">
-        <v>9.05854326</v>
+        <v>8.51734626</v>
       </c>
       <c r="BN2">
-        <v>7.3361658</v>
+        <v>6.8912568</v>
       </c>
       <c r="BO2">
-        <v>8.07878337</v>
+        <v>7.71099537</v>
       </c>
       <c r="BP2">
-        <v>6.69212858</v>
+        <v>6.32852858</v>
       </c>
       <c r="BQ2">
-        <v>7.67929666</v>
+        <v>7.23375966</v>
       </c>
       <c r="BR2">
-        <v>10.63789132</v>
+        <v>10.34942732</v>
       </c>
       <c r="BS2">
-        <v>8.258233000000001</v>
+        <v>7.812901430000001</v>
       </c>
       <c r="BT2">
-        <v>8.923150609999999</v>
+        <v>8.46173986</v>
       </c>
       <c r="BU2">
-        <v>10.48438824</v>
+        <v>10.03823625</v>
       </c>
       <c r="BV2">
-        <v>0.6345369</v>
+        <v>0.6281869</v>
       </c>
       <c r="BW2">
-        <v>8.6915925</v>
+        <v>8.6710425</v>
       </c>
       <c r="BX2">
-        <v>6.960816700000001</v>
+        <v>6.904824899999999</v>
       </c>
       <c r="BY2">
-        <v>10.3734166</v>
+        <v>10.2287151</v>
       </c>
       <c r="BZ2">
-        <v>15.0648602</v>
+        <v>14.893812</v>
       </c>
       <c r="CA2">
-        <v>13.4307231</v>
+        <v>13.1025027</v>
       </c>
       <c r="CB2">
-        <v>8.896232169999999</v>
+        <v>8.477112810833333</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -18836,665 +18836,665 @@
     </row>
     <row r="9" spans="1:80">
       <c r="A9" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0124</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.0065</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.0023</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.0054</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0068</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0036</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0058</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.0083</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.0109</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.0112</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.0108</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.0049</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>0.0107</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>0.02545</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.01992</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>0.02316</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.02498</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.030611</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.046468</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.042745</v>
       </c>
       <c r="AC9">
-        <v>0.005</v>
+        <v>0.034641</v>
       </c>
       <c r="AD9">
-        <v>0.007</v>
+        <v>0.028244</v>
       </c>
       <c r="AE9">
-        <v>0.015</v>
+        <v>0.031521</v>
       </c>
       <c r="AF9">
-        <v>0.048732</v>
+        <v>0.029797</v>
       </c>
       <c r="AG9">
-        <v>0.059355</v>
+        <v>0.035897</v>
       </c>
       <c r="AH9">
-        <v>0.121113</v>
+        <v>0.020333</v>
       </c>
       <c r="AI9">
-        <v>0.050838</v>
+        <v>0.029147</v>
       </c>
       <c r="AJ9">
-        <v>0.038035</v>
+        <v>0.03341</v>
       </c>
       <c r="AK9">
-        <v>0.029842</v>
+        <v>0.029191</v>
       </c>
       <c r="AL9">
-        <v>0.02709</v>
+        <v>0.026164</v>
       </c>
       <c r="AM9">
-        <v>0.031074</v>
+        <v>0.030407</v>
       </c>
       <c r="AN9">
-        <v>0.060669</v>
+        <v>0.054173</v>
       </c>
       <c r="AO9">
-        <v>0.062723</v>
+        <v>0.046132</v>
       </c>
       <c r="AP9">
-        <v>0.080885</v>
+        <v>0.056265</v>
       </c>
       <c r="AQ9">
-        <v>0.040866</v>
+        <v>0.054536</v>
       </c>
       <c r="AR9">
-        <v>0.049377</v>
+        <v>0.048177</v>
       </c>
       <c r="AS9">
-        <v>0.070565</v>
+        <v>0.068658</v>
       </c>
       <c r="AT9">
-        <v>0.072029</v>
+        <v>0.081992</v>
       </c>
       <c r="AU9">
-        <v>0.123772</v>
+        <v>0.06445099999999999</v>
       </c>
       <c r="AV9">
-        <v>0.14077</v>
+        <v>0.07144499999999999</v>
       </c>
       <c r="AW9">
-        <v>0.125535</v>
+        <v>0.07471899999999999</v>
       </c>
       <c r="AX9">
-        <v>0.136313</v>
+        <v>0.10284</v>
       </c>
       <c r="AY9">
-        <v>0.111766</v>
+        <v>0.113854</v>
       </c>
       <c r="AZ9">
-        <v>0.061954</v>
+        <v>0.101329</v>
       </c>
       <c r="BA9">
-        <v>0.087508</v>
+        <v>0.171377</v>
       </c>
       <c r="BB9">
-        <v>0.096428</v>
+        <v>0.112055</v>
       </c>
       <c r="BC9">
-        <v>0.108899</v>
+        <v>0.157017</v>
       </c>
       <c r="BD9">
-        <v>0.151752</v>
+        <v>0.128021</v>
       </c>
       <c r="BE9">
-        <v>0.203897</v>
+        <v>0.112361</v>
       </c>
       <c r="BF9">
-        <v>0.161834</v>
+        <v>0.07109</v>
       </c>
       <c r="BG9">
-        <v>0.136766</v>
+        <v>0.065042</v>
       </c>
       <c r="BH9">
-        <v>0.202262</v>
+        <v>0.07448100000000001</v>
       </c>
       <c r="BI9">
-        <v>0.222628</v>
+        <v>0.078541</v>
       </c>
       <c r="BJ9">
-        <v>0.190746</v>
+        <v>0.07226399999999999</v>
       </c>
       <c r="BK9">
-        <v>0.241633</v>
+        <v>0.07001775</v>
       </c>
       <c r="BL9">
-        <v>0.268722</v>
+        <v>0.06620271</v>
       </c>
       <c r="BM9">
-        <v>0.314185</v>
+        <v>0.07065948</v>
       </c>
       <c r="BN9">
-        <v>0.220238</v>
+        <v>0.08617491000000001</v>
       </c>
       <c r="BO9">
-        <v>0.115452</v>
+        <v>0.10975743</v>
       </c>
       <c r="BP9">
-        <v>0.156431</v>
+        <v>0.1123679</v>
       </c>
       <c r="BQ9">
-        <v>0.211299</v>
+        <v>0.10575454</v>
       </c>
       <c r="BR9">
-        <v>0.066436</v>
+        <v>0.13349158</v>
       </c>
       <c r="BS9">
-        <v>0.18404791</v>
+        <v>0.12250677</v>
       </c>
       <c r="BT9">
-        <v>0.18921074</v>
+        <v>0.08531468</v>
       </c>
       <c r="BU9">
-        <v>0.19708822</v>
+        <v>0.11710795</v>
       </c>
     </row>
     <row r="10" spans="1:80">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B10">
-        <v>0.0124</v>
+        <v>0.0067</v>
       </c>
       <c r="C10">
-        <v>0.0065</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="D10">
-        <v>0.0029</v>
+        <v>0.0092</v>
       </c>
       <c r="E10">
-        <v>0.0023</v>
+        <v>0.0069</v>
       </c>
       <c r="F10">
-        <v>0.0054</v>
+        <v>0.0078</v>
       </c>
       <c r="G10">
-        <v>0.0068</v>
+        <v>0.0094</v>
       </c>
       <c r="H10">
-        <v>0.0036</v>
+        <v>0.0147</v>
       </c>
       <c r="I10">
-        <v>0.0024</v>
+        <v>0.0177</v>
       </c>
       <c r="J10">
-        <v>0.0058</v>
+        <v>0.0212</v>
       </c>
       <c r="K10">
-        <v>0.0072</v>
+        <v>0.0229</v>
       </c>
       <c r="L10">
-        <v>0.0083</v>
+        <v>0.0259</v>
       </c>
       <c r="M10">
-        <v>0.008999999999999999</v>
+        <v>0.0248</v>
       </c>
       <c r="N10">
-        <v>0.0109</v>
+        <v>0.0293</v>
       </c>
       <c r="O10">
-        <v>0.0112</v>
+        <v>0.0308</v>
       </c>
       <c r="P10">
-        <v>0.0108</v>
+        <v>0.0278</v>
       </c>
       <c r="Q10">
-        <v>0.0049</v>
+        <v>0.0296</v>
       </c>
       <c r="R10">
-        <v>0.008500000000000001</v>
+        <v>0.0473</v>
       </c>
       <c r="S10">
-        <v>0.0075</v>
+        <v>0.0619</v>
       </c>
       <c r="T10">
-        <v>0.0102</v>
+        <v>0.0446</v>
       </c>
       <c r="U10">
-        <v>0.0107</v>
+        <v>0.0279</v>
       </c>
       <c r="V10">
-        <v>0.02545</v>
+        <v>0.045</v>
       </c>
       <c r="W10">
-        <v>0.01992</v>
+        <v>0.0368</v>
       </c>
       <c r="X10">
-        <v>0.02316</v>
+        <v>0.0553</v>
       </c>
       <c r="Y10">
-        <v>0.02498</v>
+        <v>0.2398</v>
       </c>
       <c r="Z10">
-        <v>0.030611</v>
+        <v>0.084865</v>
       </c>
       <c r="AA10">
-        <v>0.046468</v>
+        <v>0.07491399999999999</v>
       </c>
       <c r="AB10">
-        <v>0.042745</v>
+        <v>0.056146</v>
       </c>
       <c r="AC10">
-        <v>0.034641</v>
+        <v>0.104996</v>
       </c>
       <c r="AD10">
-        <v>0.028244</v>
+        <v>0.117132</v>
       </c>
       <c r="AE10">
-        <v>0.031521</v>
+        <v>0.077901</v>
       </c>
       <c r="AF10">
-        <v>0.029797</v>
+        <v>0.072739</v>
       </c>
       <c r="AG10">
-        <v>0.035897</v>
+        <v>0.110824</v>
       </c>
       <c r="AH10">
-        <v>0.020333</v>
+        <v>0.07124999999999999</v>
       </c>
       <c r="AI10">
-        <v>0.029147</v>
+        <v>0.089196</v>
       </c>
       <c r="AJ10">
-        <v>0.03341</v>
+        <v>0.089169</v>
       </c>
       <c r="AK10">
-        <v>0.029191</v>
+        <v>0.205506</v>
       </c>
       <c r="AL10">
-        <v>0.026164</v>
+        <v>0.19542</v>
       </c>
       <c r="AM10">
-        <v>0.030407</v>
+        <v>0.114803</v>
       </c>
       <c r="AN10">
-        <v>0.054173</v>
+        <v>0.11807</v>
       </c>
       <c r="AO10">
-        <v>0.046132</v>
+        <v>0.117545</v>
       </c>
       <c r="AP10">
-        <v>0.056265</v>
+        <v>0.18218</v>
       </c>
       <c r="AQ10">
-        <v>0.054536</v>
+        <v>0.186198</v>
       </c>
       <c r="AR10">
-        <v>0.048177</v>
+        <v>0.07185</v>
       </c>
       <c r="AS10">
-        <v>0.068658</v>
+        <v>0.053079</v>
       </c>
       <c r="AT10">
-        <v>0.081992</v>
+        <v>0.036797</v>
       </c>
       <c r="AU10">
-        <v>0.06445099999999999</v>
+        <v>0.082361</v>
       </c>
       <c r="AV10">
-        <v>0.07144499999999999</v>
+        <v>0.061192</v>
       </c>
       <c r="AW10">
-        <v>0.07471899999999999</v>
+        <v>0.09029</v>
       </c>
       <c r="AX10">
-        <v>0.10284</v>
+        <v>0.384619</v>
       </c>
       <c r="AY10">
-        <v>0.113854</v>
+        <v>0.258471</v>
       </c>
       <c r="AZ10">
-        <v>0.101329</v>
+        <v>0.269075</v>
       </c>
       <c r="BA10">
-        <v>0.171377</v>
+        <v>0.185735</v>
       </c>
       <c r="BB10">
-        <v>0.112055</v>
+        <v>0.103888</v>
       </c>
       <c r="BC10">
-        <v>0.157017</v>
+        <v>0.081159</v>
       </c>
       <c r="BD10">
-        <v>0.128021</v>
+        <v>0.09669800000000001</v>
       </c>
       <c r="BE10">
-        <v>0.112361</v>
+        <v>0.119769</v>
       </c>
       <c r="BF10">
-        <v>0.07109</v>
+        <v>0.052251</v>
       </c>
       <c r="BG10">
-        <v>0.065042</v>
+        <v>0.065312</v>
       </c>
       <c r="BH10">
-        <v>0.07448100000000001</v>
+        <v>0.061194</v>
       </c>
       <c r="BI10">
-        <v>0.078541</v>
+        <v>0.05682</v>
       </c>
       <c r="BJ10">
-        <v>0.07226399999999999</v>
+        <v>0.033213</v>
       </c>
       <c r="BK10">
-        <v>0.07001775</v>
+        <v>0.045145</v>
       </c>
       <c r="BL10">
-        <v>0.06620271</v>
+        <v>0.049021</v>
       </c>
       <c r="BM10">
-        <v>0.07065948</v>
+        <v>0.09288100000000001</v>
       </c>
       <c r="BN10">
-        <v>0.08617491000000001</v>
+        <v>0.0965</v>
       </c>
       <c r="BO10">
-        <v>0.10975743</v>
+        <v>0.036043</v>
       </c>
       <c r="BP10">
-        <v>0.1123679</v>
+        <v>0.047375</v>
       </c>
       <c r="BQ10">
-        <v>0.10575454</v>
+        <v>0.014575</v>
       </c>
       <c r="BR10">
-        <v>0.13349158</v>
+        <v>0.059417</v>
       </c>
       <c r="BS10">
-        <v>0.12250677</v>
+        <v>0.07842091000000001</v>
       </c>
       <c r="BT10">
-        <v>0.08531468</v>
+        <v>0.06352759000000001</v>
       </c>
       <c r="BU10">
-        <v>0.11710795</v>
+        <v>0.10079873</v>
       </c>
     </row>
     <row r="11" spans="1:80">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>118</v>
       </c>
       <c r="B11">
-        <v>0.0067</v>
+        <v>0.0347</v>
       </c>
       <c r="C11">
-        <v>0.008200000000000001</v>
+        <v>0.0552</v>
       </c>
       <c r="D11">
-        <v>0.0092</v>
+        <v>0.0552</v>
       </c>
       <c r="E11">
-        <v>0.0069</v>
+        <v>0.0464</v>
       </c>
       <c r="F11">
-        <v>0.0078</v>
+        <v>0.0572</v>
       </c>
       <c r="G11">
-        <v>0.0094</v>
+        <v>0.0798</v>
       </c>
       <c r="H11">
-        <v>0.0147</v>
+        <v>0.0882</v>
       </c>
       <c r="I11">
-        <v>0.0177</v>
+        <v>0.0606</v>
       </c>
       <c r="J11">
-        <v>0.0212</v>
+        <v>0.0699</v>
       </c>
       <c r="K11">
-        <v>0.0229</v>
+        <v>0.0849</v>
       </c>
       <c r="L11">
-        <v>0.0259</v>
+        <v>0.0992</v>
       </c>
       <c r="M11">
-        <v>0.0248</v>
+        <v>0.1092</v>
       </c>
       <c r="N11">
-        <v>0.0293</v>
+        <v>0.0925</v>
       </c>
       <c r="O11">
-        <v>0.0308</v>
+        <v>0.09320000000000001</v>
       </c>
       <c r="P11">
-        <v>0.0278</v>
+        <v>0.0868</v>
       </c>
       <c r="Q11">
-        <v>0.0296</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="R11">
-        <v>0.0473</v>
+        <v>0.0842</v>
       </c>
       <c r="S11">
+        <v>0.0722</v>
+      </c>
+      <c r="T11">
+        <v>0.0593</v>
+      </c>
+      <c r="U11">
+        <v>0.06519999999999999</v>
+      </c>
+      <c r="V11">
         <v>0.0619</v>
       </c>
-      <c r="T11">
-        <v>0.0446</v>
-      </c>
-      <c r="U11">
-        <v>0.0279</v>
-      </c>
-      <c r="V11">
-        <v>0.045</v>
-      </c>
       <c r="W11">
-        <v>0.0368</v>
+        <v>0.0747</v>
       </c>
       <c r="X11">
-        <v>0.0553</v>
+        <v>0.0688</v>
       </c>
       <c r="Y11">
-        <v>0.2398</v>
+        <v>0.0392</v>
       </c>
       <c r="Z11">
-        <v>0.084865</v>
+        <v>0.008402</v>
       </c>
       <c r="AA11">
-        <v>0.07491399999999999</v>
+        <v>0.005032</v>
       </c>
       <c r="AB11">
-        <v>0.056146</v>
+        <v>0.004343</v>
       </c>
       <c r="AC11">
-        <v>0.104996</v>
+        <v>0.008621999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.117132</v>
+        <v>0.00716</v>
       </c>
       <c r="AE11">
-        <v>0.077901</v>
+        <v>0.009084999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.072739</v>
+        <v>0.009509</v>
       </c>
       <c r="AG11">
-        <v>0.110824</v>
+        <v>0.011736</v>
       </c>
       <c r="AH11">
-        <v>0.07124999999999999</v>
+        <v>0.018497</v>
       </c>
       <c r="AI11">
-        <v>0.089196</v>
+        <v>0.021473</v>
       </c>
       <c r="AJ11">
-        <v>0.089169</v>
+        <v>0.028286</v>
       </c>
       <c r="AK11">
-        <v>0.205506</v>
+        <v>0.009502999999999999</v>
       </c>
       <c r="AL11">
-        <v>0.19542</v>
+        <v>0.005121</v>
       </c>
       <c r="AM11">
-        <v>0.114803</v>
+        <v>0.019443</v>
       </c>
       <c r="AN11">
-        <v>0.11807</v>
+        <v>0.034565</v>
       </c>
       <c r="AO11">
-        <v>0.117545</v>
+        <v>0.026534</v>
       </c>
       <c r="AP11">
-        <v>0.18218</v>
+        <v>0.040251</v>
       </c>
       <c r="AQ11">
-        <v>0.186198</v>
+        <v>0.025357</v>
       </c>
       <c r="AR11">
-        <v>0.07185</v>
+        <v>0.035256</v>
       </c>
       <c r="AS11">
-        <v>0.053079</v>
+        <v>0.037264</v>
       </c>
       <c r="AT11">
-        <v>0.036797</v>
+        <v>0.031297</v>
       </c>
       <c r="AU11">
-        <v>0.082361</v>
+        <v>0.028386</v>
       </c>
       <c r="AV11">
-        <v>0.061192</v>
+        <v>0.023079</v>
       </c>
       <c r="AW11">
-        <v>0.09029</v>
+        <v>0.017764</v>
       </c>
       <c r="AX11">
-        <v>0.384619</v>
+        <v>0.005722</v>
       </c>
       <c r="AY11">
-        <v>0.258471</v>
+        <v>0.001325</v>
       </c>
       <c r="AZ11">
-        <v>0.269075</v>
+        <v>0.000489</v>
       </c>
       <c r="BA11">
-        <v>0.185735</v>
+        <v>0.001319</v>
       </c>
       <c r="BB11">
-        <v>0.103888</v>
+        <v>0.000865</v>
       </c>
       <c r="BC11">
-        <v>0.081159</v>
+        <v>0.002215</v>
       </c>
       <c r="BD11">
-        <v>0.09669800000000001</v>
+        <v>0.001496</v>
       </c>
       <c r="BE11">
-        <v>0.119769</v>
+        <v>0.003104</v>
       </c>
       <c r="BF11">
-        <v>0.052251</v>
+        <v>0.013609</v>
       </c>
       <c r="BG11">
-        <v>0.065312</v>
+        <v>0.009889</v>
       </c>
       <c r="BH11">
-        <v>0.061194</v>
+        <v>0.042916</v>
       </c>
       <c r="BI11">
-        <v>0.05682</v>
+        <v>0.030684</v>
       </c>
       <c r="BJ11">
-        <v>0.033213</v>
+        <v>0.013152</v>
       </c>
       <c r="BK11">
-        <v>0.045145</v>
+        <v>0.014663</v>
       </c>
       <c r="BL11">
-        <v>0.049021</v>
+        <v>0.024025</v>
       </c>
       <c r="BM11">
-        <v>0.09288100000000001</v>
+        <v>0.038629</v>
       </c>
       <c r="BN11">
-        <v>0.0965</v>
+        <v>0.040864</v>
       </c>
       <c r="BO11">
-        <v>0.036043</v>
+        <v>0.09309199999999999</v>
       </c>
       <c r="BP11">
-        <v>0.047375</v>
+        <v>0.078828</v>
       </c>
       <c r="BQ11">
-        <v>0.014575</v>
+        <v>0.100745</v>
       </c>
       <c r="BR11">
-        <v>0.059417</v>
+        <v>0.08190799999999999</v>
       </c>
       <c r="BS11">
-        <v>0.07842091000000001</v>
+        <v>0.082999</v>
       </c>
       <c r="BT11">
-        <v>0.06352759000000001</v>
+        <v>0.12447486</v>
       </c>
       <c r="BU11">
-        <v>0.10079873</v>
+        <v>0.0945029</v>
       </c>
     </row>
     <row r="12" spans="1:80">
@@ -19502,220 +19502,220 @@
         <v>119</v>
       </c>
       <c r="B12">
-        <v>0.0347</v>
+        <v>0.0331</v>
       </c>
       <c r="C12">
-        <v>0.0552</v>
+        <v>0.0428</v>
       </c>
       <c r="D12">
-        <v>0.0552</v>
+        <v>0.0644</v>
       </c>
       <c r="E12">
-        <v>0.0464</v>
+        <v>0.059</v>
       </c>
       <c r="F12">
-        <v>0.0572</v>
+        <v>0.0561</v>
       </c>
       <c r="G12">
-        <v>0.0798</v>
+        <v>0.094</v>
       </c>
       <c r="H12">
-        <v>0.0882</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="I12">
-        <v>0.0606</v>
+        <v>0.0814</v>
       </c>
       <c r="J12">
-        <v>0.0699</v>
+        <v>0.0756</v>
       </c>
       <c r="K12">
-        <v>0.0849</v>
+        <v>0.07779999999999999</v>
       </c>
       <c r="L12">
-        <v>0.0992</v>
+        <v>0.079</v>
       </c>
       <c r="M12">
-        <v>0.1092</v>
+        <v>0.0751</v>
       </c>
       <c r="N12">
-        <v>0.0925</v>
+        <v>0.0935</v>
       </c>
       <c r="O12">
-        <v>0.09320000000000001</v>
+        <v>0.102</v>
       </c>
       <c r="P12">
-        <v>0.0868</v>
+        <v>0.0731</v>
       </c>
       <c r="Q12">
-        <v>0.07340000000000001</v>
+        <v>0.106</v>
       </c>
       <c r="R12">
-        <v>0.0842</v>
+        <v>0.0944</v>
       </c>
       <c r="S12">
-        <v>0.0722</v>
+        <v>0.1</v>
       </c>
       <c r="T12">
-        <v>0.0593</v>
+        <v>0.1457</v>
       </c>
       <c r="U12">
-        <v>0.06519999999999999</v>
+        <v>0.0985</v>
       </c>
       <c r="V12">
-        <v>0.0619</v>
+        <v>0.1055</v>
       </c>
       <c r="W12">
-        <v>0.0747</v>
+        <v>0.0931</v>
       </c>
       <c r="X12">
-        <v>0.0688</v>
+        <v>0.1076</v>
       </c>
       <c r="Y12">
-        <v>0.0392</v>
+        <v>0.2247</v>
       </c>
       <c r="Z12">
-        <v>0.008402</v>
+        <v>0.164001</v>
       </c>
       <c r="AA12">
-        <v>0.005032</v>
+        <v>0.135659</v>
       </c>
       <c r="AB12">
-        <v>0.004343</v>
+        <v>0.153041</v>
       </c>
       <c r="AC12">
-        <v>0.008621999999999999</v>
+        <v>0.173362</v>
       </c>
       <c r="AD12">
-        <v>0.00716</v>
+        <v>0.382439</v>
       </c>
       <c r="AE12">
-        <v>0.009084999999999999</v>
+        <v>0.12506</v>
       </c>
       <c r="AF12">
-        <v>0.009509</v>
+        <v>0.191438</v>
       </c>
       <c r="AG12">
-        <v>0.011736</v>
+        <v>0.102779</v>
       </c>
       <c r="AH12">
-        <v>0.018497</v>
+        <v>0.052891</v>
       </c>
       <c r="AI12">
-        <v>0.021473</v>
+        <v>0.03126</v>
       </c>
       <c r="AJ12">
-        <v>0.028286</v>
+        <v>0.045328</v>
       </c>
       <c r="AK12">
-        <v>0.009502999999999999</v>
+        <v>0.047064</v>
       </c>
       <c r="AL12">
-        <v>0.005121</v>
+        <v>0.074278</v>
       </c>
       <c r="AM12">
-        <v>0.019443</v>
+        <v>0.064286</v>
       </c>
       <c r="AN12">
-        <v>0.034565</v>
+        <v>0.149831</v>
       </c>
       <c r="AO12">
-        <v>0.026534</v>
+        <v>0.156176</v>
       </c>
       <c r="AP12">
-        <v>0.040251</v>
+        <v>0.224602</v>
       </c>
       <c r="AQ12">
-        <v>0.025357</v>
+        <v>0.140168</v>
       </c>
       <c r="AR12">
-        <v>0.035256</v>
+        <v>0.093054</v>
       </c>
       <c r="AS12">
-        <v>0.037264</v>
+        <v>0.152962</v>
       </c>
       <c r="AT12">
-        <v>0.031297</v>
+        <v>0.203812</v>
       </c>
       <c r="AU12">
-        <v>0.028386</v>
+        <v>0.256585</v>
       </c>
       <c r="AV12">
-        <v>0.023079</v>
+        <v>0.32347</v>
       </c>
       <c r="AW12">
-        <v>0.017764</v>
+        <v>0.265573</v>
       </c>
       <c r="AX12">
-        <v>0.005722</v>
+        <v>0.162516</v>
       </c>
       <c r="AY12">
-        <v>0.001325</v>
+        <v>0.14091</v>
       </c>
       <c r="AZ12">
-        <v>0.000489</v>
+        <v>0.193504</v>
       </c>
       <c r="BA12">
-        <v>0.001319</v>
+        <v>0.246265</v>
       </c>
       <c r="BB12">
-        <v>0.000865</v>
+        <v>0.162291</v>
       </c>
       <c r="BC12">
-        <v>0.002215</v>
+        <v>0.123008</v>
       </c>
       <c r="BD12">
-        <v>0.001496</v>
+        <v>0.112248</v>
       </c>
       <c r="BE12">
-        <v>0.003104</v>
+        <v>0.07803599999999999</v>
       </c>
       <c r="BF12">
-        <v>0.013609</v>
+        <v>0.077436</v>
       </c>
       <c r="BG12">
-        <v>0.009889</v>
+        <v>0.07753400000000001</v>
       </c>
       <c r="BH12">
-        <v>0.042916</v>
+        <v>0.083256</v>
       </c>
       <c r="BI12">
-        <v>0.030684</v>
+        <v>0.094306</v>
       </c>
       <c r="BJ12">
-        <v>0.013152</v>
+        <v>0.090305</v>
       </c>
       <c r="BK12">
-        <v>0.014663</v>
+        <v>0.082977</v>
       </c>
       <c r="BL12">
-        <v>0.024025</v>
+        <v>0.07287200000000001</v>
       </c>
       <c r="BM12">
-        <v>0.038629</v>
+        <v>0.092031</v>
       </c>
       <c r="BN12">
-        <v>0.040864</v>
+        <v>0.096196</v>
       </c>
       <c r="BO12">
-        <v>0.09309199999999999</v>
+        <v>0.077283</v>
       </c>
       <c r="BP12">
-        <v>0.078828</v>
+        <v>0.098662</v>
       </c>
       <c r="BQ12">
-        <v>0.100745</v>
+        <v>0.115048</v>
       </c>
       <c r="BR12">
-        <v>0.08190799999999999</v>
+        <v>0.101548</v>
       </c>
       <c r="BS12">
-        <v>0.082999</v>
+        <v>0.08749042999999999</v>
       </c>
       <c r="BT12">
-        <v>0.12447486</v>
+        <v>0.07140871999999999</v>
       </c>
       <c r="BU12">
-        <v>0.0945029</v>
+        <v>0.08752553</v>
       </c>
     </row>
   </sheetData>
@@ -20116,13 +20116,13 @@
         <v>0.147948</v>
       </c>
       <c r="AV2">
-        <v>0.100773</v>
+        <v>0.100766</v>
       </c>
       <c r="AW2">
         <v>0.08852400000000001</v>
       </c>
       <c r="AX2">
-        <v>0.10372344</v>
+        <v>0.103723</v>
       </c>
       <c r="AY2">
         <v>0.116182</v>
@@ -20137,61 +20137,61 @@
         <v>0.146511</v>
       </c>
       <c r="BC2">
-        <v>0.14255223</v>
+        <v>0.142548</v>
       </c>
       <c r="BD2">
-        <v>0.13888006</v>
+        <v>0.138878</v>
       </c>
       <c r="BE2">
-        <v>0.14948434</v>
+        <v>0.149482</v>
       </c>
       <c r="BF2">
-        <v>0.12786301</v>
+        <v>0.127863</v>
       </c>
       <c r="BG2">
-        <v>0.12696552</v>
+        <v>0.126965</v>
       </c>
       <c r="BH2">
-        <v>0.17566193</v>
+        <v>0.17565889</v>
       </c>
       <c r="BI2">
-        <v>0.14668045</v>
+        <v>0.14667896</v>
       </c>
       <c r="BJ2">
-        <v>0.2297019</v>
+        <v>0.22969035</v>
       </c>
       <c r="BK2">
-        <v>0.20563296</v>
+        <v>0.2056298</v>
       </c>
       <c r="BL2">
-        <v>0.1677951</v>
+        <v>0.16778327</v>
       </c>
       <c r="BM2">
-        <v>0.2491314</v>
+        <v>0.2491156</v>
       </c>
       <c r="BN2">
-        <v>0.29990805</v>
+        <v>0.29990143</v>
       </c>
       <c r="BO2">
-        <v>0.2550129</v>
+        <v>0.2550053999999999</v>
       </c>
       <c r="BP2">
-        <v>0.27702626</v>
+        <v>0.27700526</v>
       </c>
       <c r="BQ2">
-        <v>0.2702251</v>
+        <v>0.26905405</v>
       </c>
       <c r="BR2">
-        <v>0.33048637</v>
+        <v>0.33047667</v>
       </c>
       <c r="BS2">
-        <v>0.38874694</v>
+        <v>0.38871662</v>
       </c>
       <c r="BT2">
-        <v>0.47677114</v>
+        <v>0.4767463</v>
       </c>
       <c r="BU2">
-        <v>0.38666268</v>
+        <v>0.38665752</v>
       </c>
       <c r="BV2">
         <v>0</v>
@@ -20206,13 +20206,13 @@
         <v>0.4812544</v>
       </c>
       <c r="BZ2">
-        <v>0.190972644</v>
+        <v>0.1909719</v>
       </c>
       <c r="CA2">
-        <v>0.141217654</v>
+        <v>0.141216285</v>
       </c>
       <c r="CB2">
-        <v>0.2947584</v>
+        <v>0.2946485225</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -22685,246 +22685,246 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>5.657213</v>
+        <v>5.224528</v>
       </c>
       <c r="C2">
-        <v>6.658168</v>
+        <v>6.178138</v>
       </c>
       <c r="D2">
-        <v>6.692795</v>
+        <v>6.326686</v>
       </c>
       <c r="E2">
-        <v>6.671694</v>
+        <v>6.338877</v>
       </c>
       <c r="F2">
-        <v>7.416742</v>
+        <v>7.020475</v>
       </c>
       <c r="G2">
-        <v>7.781578</v>
+        <v>7.329786</v>
       </c>
       <c r="H2">
-        <v>8.193253</v>
+        <v>7.812878</v>
       </c>
       <c r="I2">
-        <v>7.567956</v>
+        <v>7.140895</v>
       </c>
       <c r="J2">
-        <v>7.576149</v>
+        <v>7.029871</v>
       </c>
       <c r="K2">
-        <v>7.709261</v>
+        <v>7.228833</v>
       </c>
       <c r="L2">
-        <v>7.660635</v>
+        <v>7.197534</v>
       </c>
       <c r="M2">
-        <v>7.714261</v>
+        <v>7.190836</v>
       </c>
       <c r="N2">
-        <v>7.953729</v>
+        <v>7.425525</v>
       </c>
       <c r="O2">
-        <v>8.170252</v>
+        <v>7.734596</v>
       </c>
       <c r="P2">
-        <v>8.672485999999999</v>
+        <v>8.225299</v>
       </c>
       <c r="Q2">
-        <v>9.656018</v>
+        <v>9.200259000000001</v>
       </c>
       <c r="R2">
-        <v>10.288554</v>
+        <v>9.837770000000001</v>
       </c>
       <c r="S2">
-        <v>10.411053</v>
+        <v>9.932715</v>
       </c>
       <c r="T2">
-        <v>10.279509</v>
+        <v>9.811361</v>
       </c>
       <c r="U2">
-        <v>10.017827</v>
+        <v>9.561738999999999</v>
       </c>
       <c r="V2">
-        <v>10.751024</v>
+        <v>10.293661</v>
       </c>
       <c r="W2">
-        <v>10.566584</v>
+        <v>10.086361</v>
       </c>
       <c r="X2">
-        <v>10.638175</v>
+        <v>10.216374</v>
       </c>
       <c r="Y2">
-        <v>11.178014</v>
+        <v>10.766688</v>
       </c>
       <c r="Z2">
-        <v>11.794643</v>
+        <v>11.380038</v>
       </c>
       <c r="AA2">
-        <v>12.028098</v>
+        <v>11.648527</v>
       </c>
       <c r="AB2">
-        <v>13.262314</v>
+        <v>12.889325</v>
       </c>
       <c r="AC2">
-        <v>12.678008</v>
+        <v>12.236804</v>
       </c>
       <c r="AD2">
-        <v>11.755774</v>
+        <v>11.348863</v>
       </c>
       <c r="AE2">
-        <v>11.833657</v>
+        <v>11.407892</v>
       </c>
       <c r="AF2">
-        <v>11.80914</v>
+        <v>11.420747</v>
       </c>
       <c r="AG2">
-        <v>11.66003</v>
+        <v>11.303876</v>
       </c>
       <c r="AH2">
-        <v>10.737019</v>
+        <v>10.349286</v>
       </c>
       <c r="AI2">
-        <v>11.095764</v>
+        <v>10.743882</v>
       </c>
       <c r="AJ2">
-        <v>11.350707</v>
+        <v>10.951078</v>
       </c>
       <c r="AK2">
-        <v>10.935661</v>
+        <v>10.538844</v>
       </c>
       <c r="AL2">
-        <v>10.369704</v>
+        <v>9.954635</v>
       </c>
       <c r="AM2">
-        <v>10.287984</v>
+        <v>9.853306999999999</v>
       </c>
       <c r="AN2">
-        <v>10.405609</v>
+        <v>9.950949</v>
       </c>
       <c r="AO2">
-        <v>9.742628</v>
+        <v>9.319095000000001</v>
       </c>
       <c r="AP2">
-        <v>8.891175</v>
+        <v>8.455223</v>
       </c>
       <c r="AQ2">
-        <v>9.40879</v>
+        <v>8.963704999999999</v>
       </c>
       <c r="AR2">
-        <v>10.916808</v>
+        <v>10.497722</v>
       </c>
       <c r="AS2">
-        <v>10.706119</v>
+        <v>10.335184</v>
       </c>
       <c r="AT2">
-        <v>10.727115</v>
+        <v>10.30054</v>
       </c>
       <c r="AU2">
-        <v>11.442965</v>
+        <v>11.030827</v>
       </c>
       <c r="AV2">
-        <v>11.4910762</v>
+        <v>11.07017</v>
       </c>
       <c r="AW2">
-        <v>12.1884862</v>
+        <v>11.762082</v>
       </c>
       <c r="AX2">
-        <v>11.34477</v>
+        <v>10.984194</v>
       </c>
       <c r="AY2">
-        <v>10.8989125</v>
+        <v>10.513708</v>
       </c>
       <c r="AZ2">
-        <v>11.432328</v>
+        <v>11.013557</v>
       </c>
       <c r="BA2">
-        <v>11.5141326</v>
+        <v>11.134418</v>
       </c>
       <c r="BB2">
-        <v>11.4626163</v>
+        <v>11.08333</v>
       </c>
       <c r="BC2">
-        <v>10.6278588</v>
+        <v>10.271103</v>
       </c>
       <c r="BD2">
-        <v>10.2874955</v>
+        <v>9.984484999999999</v>
       </c>
       <c r="BE2">
-        <v>9.956574400000001</v>
+        <v>9.649998999999999</v>
       </c>
       <c r="BF2">
-        <v>9.3831784</v>
+        <v>9.101433</v>
       </c>
       <c r="BG2">
-        <v>9.190868</v>
+        <v>8.904716000000001</v>
       </c>
       <c r="BH2">
-        <v>8.8259673</v>
+        <v>8.536572300000001</v>
       </c>
       <c r="BI2">
-        <v>8.73559053</v>
+        <v>8.463840529999999</v>
       </c>
       <c r="BJ2">
-        <v>8.984556939999999</v>
+        <v>8.723132939999999</v>
       </c>
       <c r="BK2">
-        <v>8.354386530000001</v>
+        <v>8.07435353</v>
       </c>
       <c r="BL2">
-        <v>8.377172009999999</v>
+        <v>8.119325009999999</v>
       </c>
       <c r="BM2">
-        <v>8.78615222</v>
+        <v>8.467660220000001</v>
       </c>
       <c r="BN2">
-        <v>8.95831332</v>
+        <v>8.665230960000001</v>
       </c>
       <c r="BO2">
-        <v>9.438916359999999</v>
+        <v>9.165783599999999</v>
       </c>
       <c r="BP2">
-        <v>8.626338089999999</v>
+        <v>8.336367450000001</v>
       </c>
       <c r="BQ2">
-        <v>9.642757189999999</v>
+        <v>9.356280269999999</v>
       </c>
       <c r="BR2">
-        <v>9.58885289</v>
+        <v>9.303540570000001</v>
       </c>
       <c r="BS2">
-        <v>8.583655140000001</v>
+        <v>8.313663309999999</v>
       </c>
       <c r="BT2">
-        <v>8.623455910000001</v>
+        <v>8.35030154</v>
       </c>
       <c r="BU2">
-        <v>8.374113339999999</v>
+        <v>8.088503169999999</v>
       </c>
       <c r="BV2">
-        <v>7.1924809</v>
+        <v>6.7630967</v>
       </c>
       <c r="BW2">
-        <v>9.082432399999998</v>
+        <v>8.611763400000001</v>
       </c>
       <c r="BX2">
-        <v>11.6486291</v>
+        <v>11.2274533</v>
       </c>
       <c r="BY2">
-        <v>10.8394246</v>
+        <v>10.4385699</v>
       </c>
       <c r="BZ2">
-        <v>10.80162169</v>
+        <v>10.3913355</v>
       </c>
       <c r="CA2">
-        <v>10.141660983</v>
+        <v>9.814345383000001</v>
       </c>
       <c r="CB2">
-        <v>8.861555828333334</v>
+        <v>8.580345214166666</v>
       </c>
     </row>
     <row r="3" spans="1:80">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1.8467</v>
@@ -24955,7 +24955,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -24973,163 +24973,163 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>0.0053</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>0.0029</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>0.0016</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.001293</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>0.004987</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>0.004139</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>0.000175</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>0.002957</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>0.000406</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>8.7E-05</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>2.6E-05</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>0.000581</v>
       </c>
       <c r="AI12">
         <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0.002</v>
+        <v>0.000239</v>
       </c>
       <c r="AK12">
-        <v>0.0022</v>
+        <v>0.000135</v>
       </c>
       <c r="AL12">
-        <v>0.0024</v>
+        <v>0.011597</v>
       </c>
       <c r="AM12">
-        <v>0.0026</v>
+        <v>0.012351</v>
       </c>
       <c r="AN12">
-        <v>0.0028</v>
+        <v>0.008802000000000001</v>
       </c>
       <c r="AO12">
-        <v>0.003</v>
+        <v>0.004683</v>
       </c>
       <c r="AP12">
-        <v>0.003</v>
+        <v>0.00278</v>
       </c>
       <c r="AQ12">
-        <v>0.0028</v>
+        <v>0.001571</v>
       </c>
       <c r="AR12">
-        <v>0.0028</v>
+        <v>0.000644</v>
       </c>
       <c r="AS12">
-        <v>0.0027</v>
+        <v>0.005963</v>
       </c>
       <c r="AT12">
-        <v>0.0026</v>
+        <v>0.005596</v>
       </c>
       <c r="AU12">
-        <v>0.0024</v>
+        <v>0.007753</v>
       </c>
       <c r="AV12">
-        <v>0.0023</v>
+        <v>0.004842</v>
       </c>
       <c r="AW12">
-        <v>0.0019</v>
+        <v>0.005234</v>
       </c>
       <c r="AX12">
-        <v>0.002</v>
+        <v>0.004619</v>
       </c>
       <c r="AY12">
-        <v>0.002</v>
+        <v>0.025043</v>
       </c>
       <c r="AZ12">
-        <v>0.004005</v>
+        <v>0.075506</v>
       </c>
       <c r="BA12">
-        <v>0.004638</v>
+        <v>0.098534</v>
       </c>
       <c r="BB12">
-        <v>0.005249</v>
+        <v>0.092344</v>
       </c>
       <c r="BC12">
-        <v>0.006448</v>
+        <v>0.094689</v>
       </c>
       <c r="BD12">
-        <v>0.006248</v>
+        <v>0.083967</v>
       </c>
       <c r="BE12">
-        <v>0.001864</v>
+        <v>0.048188</v>
       </c>
       <c r="BF12">
-        <v>0.002891</v>
+        <v>0.060864</v>
       </c>
       <c r="BG12">
-        <v>0.008114</v>
+        <v>0.051178</v>
       </c>
       <c r="BH12">
-        <v>0.008114</v>
+        <v>0.05002202000000001</v>
       </c>
       <c r="BI12">
-        <v>0.002806</v>
+        <v>0.05814529</v>
       </c>
       <c r="BJ12">
-        <v>0.002677</v>
+        <v>0.07423319</v>
       </c>
       <c r="BK12">
-        <v>0.009481</v>
+        <v>0.048676</v>
       </c>
       <c r="BL12">
-        <v>0.005309</v>
+        <v>0.043204</v>
       </c>
       <c r="BM12">
-        <v>0.021384</v>
+        <v>0.047345</v>
       </c>
       <c r="BN12">
-        <v>0.03015778</v>
+        <v>0.0477551</v>
       </c>
       <c r="BO12">
-        <v>0.01819227</v>
+        <v>0.05853133999999999</v>
       </c>
       <c r="BP12">
-        <v>0.01018458</v>
+        <v>0.067216</v>
       </c>
       <c r="BQ12">
-        <v>0.01026144</v>
+        <v>0.06370099999999999</v>
       </c>
       <c r="BR12">
-        <v>0.01899343</v>
+        <v>0.067292</v>
       </c>
       <c r="BS12">
-        <v>0.04778136</v>
+        <v>0.07652061</v>
       </c>
       <c r="BT12">
-        <v>0.15112523</v>
+        <v>0.08442303</v>
       </c>
       <c r="BU12">
-        <v>0.16202769</v>
+        <v>0.09446219</v>
       </c>
     </row>
   </sheetData>
@@ -25392,241 +25392,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.5165779</v>
+        <v>0.516574</v>
       </c>
       <c r="C2">
-        <v>0.5671816999999999</v>
+        <v>0.567177</v>
       </c>
       <c r="D2">
-        <v>0.671219</v>
+        <v>0.671164</v>
       </c>
       <c r="E2">
-        <v>0.629848</v>
+        <v>0.629633</v>
       </c>
       <c r="F2">
-        <v>0.61803</v>
+        <v>0.617923</v>
       </c>
       <c r="G2">
-        <v>0.679417</v>
+        <v>0.6793</v>
       </c>
       <c r="H2">
-        <v>0.762562</v>
+        <v>0.7625459999999999</v>
       </c>
       <c r="I2">
-        <v>0.645133</v>
+        <v>0.645111</v>
       </c>
       <c r="J2">
-        <v>0.728244</v>
+        <v>0.727926</v>
       </c>
       <c r="K2">
-        <v>0.952608</v>
+        <v>0.95199</v>
       </c>
       <c r="L2">
-        <v>0.982671</v>
+        <v>0.982542</v>
       </c>
       <c r="M2">
-        <v>1.049967</v>
+        <v>1.049633</v>
       </c>
       <c r="N2">
-        <v>1.093377</v>
+        <v>1.092941</v>
       </c>
       <c r="O2">
-        <v>1.143808</v>
+        <v>1.143158</v>
       </c>
       <c r="P2">
-        <v>1.130099</v>
+        <v>1.129364</v>
       </c>
       <c r="Q2">
-        <v>1.221336</v>
+        <v>1.220401</v>
       </c>
       <c r="R2">
-        <v>1.119387</v>
+        <v>1.118657</v>
       </c>
       <c r="S2">
-        <v>1.116308</v>
+        <v>1.110963</v>
       </c>
       <c r="T2">
-        <v>1.199556</v>
+        <v>1.189252</v>
       </c>
       <c r="U2">
-        <v>1.315064</v>
+        <v>1.313331</v>
       </c>
       <c r="V2">
-        <v>1.33675</v>
+        <v>1.334725</v>
       </c>
       <c r="W2">
-        <v>1.542014</v>
+        <v>1.539794</v>
       </c>
       <c r="X2">
-        <v>1.407144</v>
+        <v>1.405429</v>
       </c>
       <c r="Y2">
-        <v>1.312353</v>
+        <v>1.310941</v>
       </c>
       <c r="Z2">
-        <v>1.446923</v>
+        <v>1.445151</v>
       </c>
       <c r="AA2">
-        <v>1.430796</v>
+        <v>1.428345</v>
       </c>
       <c r="AB2">
-        <v>1.47784</v>
+        <v>1.474685</v>
       </c>
       <c r="AC2">
-        <v>1.335372</v>
+        <v>1.331196</v>
       </c>
       <c r="AD2">
-        <v>1.809137</v>
+        <v>1.807762</v>
       </c>
       <c r="AE2">
-        <v>1.7684</v>
+        <v>1.766909</v>
       </c>
       <c r="AF2">
-        <v>1.74259</v>
+        <v>1.741277</v>
       </c>
       <c r="AG2">
-        <v>1.82469387</v>
+        <v>1.823146</v>
       </c>
       <c r="AH2">
-        <v>2.09322208</v>
+        <v>2.091312</v>
       </c>
       <c r="AI2">
-        <v>2.18756316</v>
+        <v>2.186201</v>
       </c>
       <c r="AJ2">
-        <v>2.50669051</v>
+        <v>2.505471</v>
       </c>
       <c r="AK2">
-        <v>2.16868976</v>
+        <v>2.166962</v>
       </c>
       <c r="AL2">
-        <v>1.97119148</v>
+        <v>1.969793</v>
       </c>
       <c r="AM2">
-        <v>2.08248061</v>
+        <v>2.081243</v>
       </c>
       <c r="AN2">
-        <v>1.81896644</v>
+        <v>1.817899</v>
       </c>
       <c r="AO2">
-        <v>1.75216231</v>
+        <v>1.751093</v>
       </c>
       <c r="AP2">
-        <v>1.70919404</v>
+        <v>1.708129</v>
       </c>
       <c r="AQ2">
-        <v>1.74532934</v>
+        <v>1.744604</v>
       </c>
       <c r="AR2">
-        <v>1.6014867</v>
+        <v>1.600651</v>
       </c>
       <c r="AS2">
-        <v>1.82486583</v>
+        <v>1.824179</v>
       </c>
       <c r="AT2">
-        <v>2.19857688</v>
+        <v>2.197719</v>
       </c>
       <c r="AU2">
-        <v>1.73149883</v>
+        <v>1.730762</v>
       </c>
       <c r="AV2">
-        <v>1.7715876</v>
+        <v>1.770809</v>
       </c>
       <c r="AW2">
-        <v>1.91461571</v>
+        <v>1.914023</v>
       </c>
       <c r="AX2">
-        <v>1.82242646</v>
+        <v>1.821751</v>
       </c>
       <c r="AY2">
-        <v>1.94269992</v>
+        <v>1.9421281</v>
       </c>
       <c r="AZ2">
-        <v>1.77831476</v>
+        <v>1.7777216</v>
       </c>
       <c r="BA2">
-        <v>1.728966</v>
+        <v>1.7284605</v>
       </c>
       <c r="BB2">
-        <v>1.77229765</v>
+        <v>1.7718037</v>
       </c>
       <c r="BC2">
-        <v>1.72493576</v>
+        <v>1.724484</v>
       </c>
       <c r="BD2">
-        <v>1.70065494</v>
+        <v>1.700245</v>
       </c>
       <c r="BE2">
-        <v>1.4028601</v>
+        <v>1.402418</v>
       </c>
       <c r="BF2">
-        <v>1.3774949</v>
+        <v>1.377054</v>
       </c>
       <c r="BG2">
-        <v>1.42022458</v>
+        <v>1.419824</v>
       </c>
       <c r="BH2">
-        <v>1.26608024</v>
+        <v>1.265666</v>
       </c>
       <c r="BI2">
-        <v>1.36454143</v>
+        <v>1.36421395</v>
       </c>
       <c r="BJ2">
-        <v>1.19439385</v>
+        <v>1.19392441</v>
       </c>
       <c r="BK2">
-        <v>1.44499769</v>
+        <v>1.44461368</v>
       </c>
       <c r="BL2">
-        <v>1.41008207</v>
+        <v>1.40941358</v>
       </c>
       <c r="BM2">
-        <v>1.22388652</v>
+        <v>1.22329538</v>
       </c>
       <c r="BN2">
-        <v>1.18003666</v>
+        <v>1.17953373</v>
       </c>
       <c r="BO2">
-        <v>1.41899998</v>
+        <v>1.41826369</v>
       </c>
       <c r="BP2">
-        <v>1.56446238</v>
+        <v>1.5639815</v>
       </c>
       <c r="BQ2">
-        <v>1.41684274</v>
+        <v>1.4165798</v>
       </c>
       <c r="BR2">
-        <v>1.42624894</v>
+        <v>1.42586374</v>
       </c>
       <c r="BS2">
-        <v>1.23246152</v>
+        <v>1.23200101</v>
       </c>
       <c r="BT2">
-        <v>1.1333679</v>
+        <v>1.13298929</v>
       </c>
       <c r="BU2">
-        <v>1.16210806</v>
+        <v>1.16162117</v>
       </c>
       <c r="BV2">
-        <v>0.67708206</v>
+        <v>0.6769344</v>
       </c>
       <c r="BW2">
-        <v>1.1371573</v>
+        <v>1.1350242</v>
       </c>
       <c r="BX2">
-        <v>1.4866729</v>
+        <v>1.4844937</v>
       </c>
       <c r="BY2">
-        <v>2.014825022</v>
+        <v>2.0134397</v>
       </c>
       <c r="BZ2">
-        <v>1.826228131</v>
+        <v>1.82547551</v>
       </c>
       <c r="CA2">
-        <v>1.553637036</v>
+        <v>1.553189075</v>
       </c>
       <c r="CB2">
-        <v>1.317324025833333</v>
+        <v>1.316840081666667</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -28099,241 +28099,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.314512</v>
+        <v>0.304212</v>
       </c>
       <c r="C2">
-        <v>0.278346</v>
+        <v>0.268046</v>
       </c>
       <c r="D2">
-        <v>0.345519</v>
+        <v>0.335219</v>
       </c>
       <c r="E2">
-        <v>0.357694</v>
+        <v>0.345194</v>
       </c>
       <c r="F2">
-        <v>0.345653</v>
+        <v>0.332153</v>
       </c>
       <c r="G2">
-        <v>0.369001</v>
+        <v>0.354501</v>
       </c>
       <c r="H2">
-        <v>0.406196</v>
+        <v>0.391696</v>
       </c>
       <c r="I2">
-        <v>0.496488</v>
+        <v>0.480488</v>
       </c>
       <c r="J2">
-        <v>0.533187</v>
+        <v>0.517187</v>
       </c>
       <c r="K2">
-        <v>0.578978</v>
+        <v>0.562978</v>
       </c>
       <c r="L2">
-        <v>0.6275309999999999</v>
+        <v>0.610531</v>
       </c>
       <c r="M2">
-        <v>0.728965</v>
+        <v>0.711465</v>
       </c>
       <c r="N2">
-        <v>0.859675</v>
+        <v>0.850675</v>
       </c>
       <c r="O2">
-        <v>0.894295</v>
+        <v>0.8852950000000001</v>
       </c>
       <c r="P2">
-        <v>1.091234</v>
+        <v>1.080234</v>
       </c>
       <c r="Q2">
-        <v>1.153594</v>
+        <v>1.140594</v>
       </c>
       <c r="R2">
-        <v>1.294007</v>
+        <v>1.275907</v>
       </c>
       <c r="S2">
-        <v>1.456168</v>
+        <v>1.438068</v>
       </c>
       <c r="T2">
-        <v>1.640782</v>
+        <v>1.625682</v>
       </c>
       <c r="U2">
-        <v>1.96616</v>
+        <v>1.95806</v>
       </c>
       <c r="V2">
-        <v>2.426282</v>
+        <v>2.417682</v>
       </c>
       <c r="W2">
-        <v>2.762577</v>
+        <v>2.753977</v>
       </c>
       <c r="X2">
-        <v>2.957792</v>
+        <v>2.949192</v>
       </c>
       <c r="Y2">
-        <v>3.195682</v>
+        <v>3.187582</v>
       </c>
       <c r="Z2">
-        <v>3.361098</v>
+        <v>3.357632</v>
       </c>
       <c r="AA2">
-        <v>3.397043</v>
+        <v>3.391456</v>
       </c>
       <c r="AB2">
-        <v>3.437506</v>
+        <v>3.432279</v>
       </c>
       <c r="AC2">
-        <v>3.613292</v>
+        <v>3.608065</v>
       </c>
       <c r="AD2">
-        <v>3.068204</v>
+        <v>3.062926</v>
       </c>
       <c r="AE2">
-        <v>2.554423</v>
+        <v>2.549145</v>
       </c>
       <c r="AF2">
-        <v>3.374305</v>
+        <v>3.369026</v>
       </c>
       <c r="AG2">
-        <v>3.030785</v>
+        <v>3.025506</v>
       </c>
       <c r="AH2">
-        <v>3.060312</v>
+        <v>3.054476</v>
       </c>
       <c r="AI2">
-        <v>3.055575</v>
+        <v>3.050065</v>
       </c>
       <c r="AJ2">
-        <v>2.653212</v>
+        <v>2.647821</v>
       </c>
       <c r="AK2">
-        <v>2.80043</v>
+        <v>2.79523</v>
       </c>
       <c r="AL2">
-        <v>3.074776</v>
+        <v>3.06955</v>
       </c>
       <c r="AM2">
-        <v>3.320345</v>
+        <v>3.314942</v>
       </c>
       <c r="AN2">
-        <v>3.715902</v>
+        <v>3.711089</v>
       </c>
       <c r="AO2">
-        <v>3.9544942</v>
+        <v>3.947682</v>
       </c>
       <c r="AP2">
-        <v>4.13733621</v>
+        <v>4.131129</v>
       </c>
       <c r="AQ2">
-        <v>3.9734242</v>
+        <v>3.965733</v>
       </c>
       <c r="AR2">
-        <v>3.3356006</v>
+        <v>3.327646</v>
       </c>
       <c r="AS2">
-        <v>2.9757678</v>
+        <v>2.968547</v>
       </c>
       <c r="AT2">
-        <v>2.9067319</v>
+        <v>2.901302</v>
       </c>
       <c r="AU2">
-        <v>3.4237256</v>
+        <v>3.415793</v>
       </c>
       <c r="AV2">
-        <v>3.6076428</v>
+        <v>3.599924</v>
       </c>
       <c r="AW2">
-        <v>3.6715655</v>
+        <v>3.663256</v>
       </c>
       <c r="AX2">
-        <v>3.8489466</v>
+        <v>3.841608</v>
       </c>
       <c r="AY2">
-        <v>3.75902015</v>
+        <v>3.752486</v>
       </c>
       <c r="AZ2">
-        <v>3.733033</v>
+        <v>3.720642</v>
       </c>
       <c r="BA2">
-        <v>3.9477256</v>
+        <v>3.937172</v>
       </c>
       <c r="BB2">
-        <v>3.6321918</v>
+        <v>3.623195</v>
       </c>
       <c r="BC2">
-        <v>3.5651056</v>
+        <v>3.552861</v>
       </c>
       <c r="BD2">
-        <v>3.7396534</v>
+        <v>3.7264964</v>
       </c>
       <c r="BE2">
-        <v>3.80734999</v>
+        <v>3.79449889</v>
       </c>
       <c r="BF2">
-        <v>3.57252449</v>
+        <v>3.55761299</v>
       </c>
       <c r="BG2">
-        <v>3.61123231</v>
+        <v>3.59884801</v>
       </c>
       <c r="BH2">
-        <v>3.89680304</v>
+        <v>3.88775514</v>
       </c>
       <c r="BI2">
-        <v>4.1862655</v>
+        <v>4.175888</v>
       </c>
       <c r="BJ2">
-        <v>4.516317900000001</v>
+        <v>4.5089093</v>
       </c>
       <c r="BK2">
-        <v>4.422791559999999</v>
+        <v>4.40299296</v>
       </c>
       <c r="BL2">
-        <v>4.23874789</v>
+        <v>4.21932229</v>
       </c>
       <c r="BM2">
-        <v>4.311966770000001</v>
+        <v>4.28818147</v>
       </c>
       <c r="BN2">
-        <v>4.57272985</v>
+        <v>4.5628218</v>
       </c>
       <c r="BO2">
-        <v>4.4439521</v>
+        <v>4.42487649</v>
       </c>
       <c r="BP2">
-        <v>4.888367769999999</v>
+        <v>4.86307335</v>
       </c>
       <c r="BQ2">
-        <v>5.40596968</v>
+        <v>5.38128938</v>
       </c>
       <c r="BR2">
-        <v>5.49434338</v>
+        <v>5.479514379999999</v>
       </c>
       <c r="BS2">
-        <v>5.39098201</v>
+        <v>5.373662560000001</v>
       </c>
       <c r="BT2">
-        <v>4.93997782</v>
+        <v>4.91775911</v>
       </c>
       <c r="BU2">
-        <v>5.1870693</v>
+        <v>5.1666412</v>
       </c>
       <c r="BV2">
-        <v>0.4025574</v>
+        <v>0.3891674</v>
       </c>
       <c r="BW2">
-        <v>1.1712411</v>
+        <v>1.1576511</v>
       </c>
       <c r="BX2">
-        <v>3.0773899</v>
+        <v>3.0709936</v>
       </c>
       <c r="BY2">
-        <v>3.20401362</v>
+        <v>3.1985387</v>
       </c>
       <c r="BZ2">
-        <v>3.563976136</v>
+        <v>3.5567424</v>
       </c>
       <c r="CA2">
-        <v>3.769188473</v>
+        <v>3.757496943</v>
       </c>
       <c r="CB2">
-        <v>4.8177680025</v>
+        <v>4.799087024166666</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -30806,241 +30806,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.774162</v>
+        <v>0.728994</v>
       </c>
       <c r="C2">
-        <v>0.82702</v>
+        <v>0.804907</v>
       </c>
       <c r="D2">
-        <v>0.861314</v>
+        <v>0.799715</v>
       </c>
       <c r="E2">
-        <v>0.816181</v>
+        <v>0.762276</v>
       </c>
       <c r="F2">
-        <v>0.867491</v>
+        <v>0.766941</v>
       </c>
       <c r="G2">
-        <v>0.743915</v>
+        <v>0.699462</v>
       </c>
       <c r="H2">
-        <v>0.801242</v>
+        <v>0.757999</v>
       </c>
       <c r="I2">
-        <v>0.817186</v>
+        <v>0.758575</v>
       </c>
       <c r="J2">
-        <v>0.849432</v>
+        <v>0.765678</v>
       </c>
       <c r="K2">
-        <v>0.881264</v>
+        <v>0.755677</v>
       </c>
       <c r="L2">
-        <v>0.816009</v>
+        <v>0.72376</v>
       </c>
       <c r="M2">
-        <v>0.897996</v>
+        <v>0.805551</v>
       </c>
       <c r="N2">
-        <v>0.861692</v>
+        <v>0.765132</v>
       </c>
       <c r="O2">
-        <v>0.9883061</v>
+        <v>0.908612</v>
       </c>
       <c r="P2">
-        <v>1.0274001</v>
+        <v>0.965988</v>
       </c>
       <c r="Q2">
-        <v>1.0367744</v>
+        <v>0.978239</v>
       </c>
       <c r="R2">
-        <v>1.0552568</v>
+        <v>1.017813</v>
       </c>
       <c r="S2">
-        <v>1.135143</v>
+        <v>1.094589</v>
       </c>
       <c r="T2">
-        <v>1.0832</v>
+        <v>1.039421</v>
       </c>
       <c r="U2">
-        <v>0.9797</v>
+        <v>0.936935</v>
       </c>
       <c r="V2">
-        <v>1.142901</v>
+        <v>1.096673</v>
       </c>
       <c r="W2">
-        <v>1.123065</v>
+        <v>1.059669</v>
       </c>
       <c r="X2">
-        <v>1.18416</v>
+        <v>1.136228</v>
       </c>
       <c r="Y2">
-        <v>1.184578</v>
+        <v>1.128729</v>
       </c>
       <c r="Z2">
-        <v>1.314632</v>
+        <v>1.242425</v>
       </c>
       <c r="AA2">
-        <v>1.295646</v>
+        <v>1.221649</v>
       </c>
       <c r="AB2">
-        <v>1.384424</v>
+        <v>1.311164</v>
       </c>
       <c r="AC2">
-        <v>1.264004</v>
+        <v>1.164071</v>
       </c>
       <c r="AD2">
-        <v>1.3986</v>
+        <v>1.311613</v>
       </c>
       <c r="AE2">
-        <v>1.5820735</v>
+        <v>1.491683</v>
       </c>
       <c r="AF2">
-        <v>1.746139</v>
+        <v>1.643443</v>
       </c>
       <c r="AG2">
-        <v>1.80087573</v>
+        <v>1.702485</v>
       </c>
       <c r="AH2">
-        <v>1.95612774</v>
+        <v>1.880927</v>
       </c>
       <c r="AI2">
-        <v>1.95085486</v>
+        <v>1.89227</v>
       </c>
       <c r="AJ2">
-        <v>2.01583754</v>
+        <v>1.947737</v>
       </c>
       <c r="AK2">
-        <v>1.98688644</v>
+        <v>1.90844</v>
       </c>
       <c r="AL2">
-        <v>2.04639668</v>
+        <v>1.946862</v>
       </c>
       <c r="AM2">
-        <v>1.97258141</v>
+        <v>1.890488</v>
       </c>
       <c r="AN2">
-        <v>2.00206991</v>
+        <v>1.987609</v>
       </c>
       <c r="AO2">
-        <v>1.62241952</v>
+        <v>1.608297</v>
       </c>
       <c r="AP2">
-        <v>1.38904066</v>
+        <v>1.376441</v>
       </c>
       <c r="AQ2">
-        <v>1.3321183</v>
+        <v>1.322734</v>
       </c>
       <c r="AR2">
-        <v>1.45910269</v>
+        <v>1.45707</v>
       </c>
       <c r="AS2">
-        <v>1.54303279</v>
+        <v>1.542344</v>
       </c>
       <c r="AT2">
-        <v>1.66695076</v>
+        <v>1.66188</v>
       </c>
       <c r="AU2">
-        <v>1.70933995</v>
+        <v>1.705588</v>
       </c>
       <c r="AV2">
-        <v>1.5362635</v>
+        <v>1.533122</v>
       </c>
       <c r="AW2">
-        <v>1.44800688</v>
+        <v>1.445177</v>
       </c>
       <c r="AX2">
-        <v>1.40784547</v>
+        <v>1.405386</v>
       </c>
       <c r="AY2">
-        <v>1.54419415</v>
+        <v>1.541881</v>
       </c>
       <c r="AZ2">
-        <v>1.51874652</v>
+        <v>1.516431</v>
       </c>
       <c r="BA2">
-        <v>1.5844485</v>
+        <v>1.58224</v>
       </c>
       <c r="BB2">
-        <v>1.57395979</v>
+        <v>1.571635</v>
       </c>
       <c r="BC2">
-        <v>1.48160232</v>
+        <v>1.4792</v>
       </c>
       <c r="BD2">
-        <v>1.51118089</v>
+        <v>1.508925</v>
       </c>
       <c r="BE2">
-        <v>1.4434537</v>
+        <v>1.441222</v>
       </c>
       <c r="BF2">
-        <v>1.62080384</v>
+        <v>1.618114</v>
       </c>
       <c r="BG2">
-        <v>1.68924905</v>
+        <v>1.685857</v>
       </c>
       <c r="BH2">
-        <v>1.48695127</v>
+        <v>1.483489</v>
       </c>
       <c r="BI2">
-        <v>1.47547047</v>
+        <v>1.471771</v>
       </c>
       <c r="BJ2">
-        <v>1.42806361</v>
+        <v>1.426403</v>
       </c>
       <c r="BK2">
-        <v>1.43932303</v>
+        <v>1.43635287</v>
       </c>
       <c r="BL2">
-        <v>1.28767205</v>
+        <v>1.2863181</v>
       </c>
       <c r="BM2">
-        <v>1.25260178</v>
+        <v>1.25106482</v>
       </c>
       <c r="BN2">
-        <v>1.13275061</v>
+        <v>1.13130846</v>
       </c>
       <c r="BO2">
-        <v>1.32977732</v>
+        <v>1.32843948</v>
       </c>
       <c r="BP2">
-        <v>1.25854545</v>
+        <v>1.25720725</v>
       </c>
       <c r="BQ2">
-        <v>1.36129969</v>
+        <v>1.35997953</v>
       </c>
       <c r="BR2">
-        <v>1.31150939</v>
+        <v>1.3102109</v>
       </c>
       <c r="BS2">
-        <v>1.41679531</v>
+        <v>1.41552552</v>
       </c>
       <c r="BT2">
-        <v>1.19487851</v>
+        <v>1.19362054</v>
       </c>
       <c r="BU2">
-        <v>1.13709746</v>
+        <v>1.13584225</v>
       </c>
       <c r="BV2">
-        <v>0.8239207000000001</v>
+        <v>0.7600224000000001</v>
       </c>
       <c r="BW2">
-        <v>0.9881477399999999</v>
+        <v>0.9236040000000001</v>
       </c>
       <c r="BX2">
-        <v>1.28740835</v>
+        <v>1.2163904</v>
       </c>
       <c r="BY2">
-        <v>1.910018883</v>
+        <v>1.8408558</v>
       </c>
       <c r="BZ2">
-        <v>1.503589515</v>
+        <v>1.4991623</v>
       </c>
       <c r="CA2">
-        <v>1.538586635</v>
+        <v>1.5358884</v>
       </c>
       <c r="CB2">
-        <v>1.2958595175</v>
+        <v>1.29435606</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -33513,211 +33513,211 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.175492</v>
+        <v>0.1716</v>
       </c>
       <c r="C2">
-        <v>0.2003</v>
+        <v>0.195</v>
       </c>
       <c r="D2">
-        <v>0.2171</v>
+        <v>0.2118</v>
       </c>
       <c r="E2">
-        <v>0.2031</v>
+        <v>0.1977</v>
       </c>
       <c r="F2">
-        <v>0.2199</v>
+        <v>0.2125</v>
       </c>
       <c r="G2">
-        <v>0.2351</v>
+        <v>0.2276</v>
       </c>
       <c r="H2">
-        <v>0.250268</v>
+        <v>0.241768</v>
       </c>
       <c r="I2">
-        <v>0.26126</v>
+        <v>0.25276</v>
       </c>
       <c r="J2">
-        <v>0.254446</v>
+        <v>0.245846</v>
       </c>
       <c r="K2">
-        <v>0.29692</v>
+        <v>0.282311</v>
       </c>
       <c r="L2">
-        <v>0.318263</v>
+        <v>0.306201</v>
       </c>
       <c r="M2">
-        <v>0.336658</v>
+        <v>0.318055</v>
       </c>
       <c r="N2">
-        <v>0.437163</v>
+        <v>0.41945</v>
       </c>
       <c r="O2">
-        <v>0.420759</v>
+        <v>0.402059</v>
       </c>
       <c r="P2">
-        <v>0.47915</v>
+        <v>0.45818</v>
       </c>
       <c r="Q2">
-        <v>0.533453</v>
+        <v>0.5036119999999999</v>
       </c>
       <c r="R2">
-        <v>0.6568619999999999</v>
+        <v>0.6145620000000001</v>
       </c>
       <c r="S2">
-        <v>1.253076</v>
+        <v>1.207056</v>
       </c>
       <c r="T2">
-        <v>0.821358</v>
+        <v>0.783097</v>
       </c>
       <c r="U2">
-        <v>0.619513</v>
+        <v>0.581993</v>
       </c>
       <c r="V2">
-        <v>0.749741</v>
+        <v>0.711264</v>
       </c>
       <c r="W2">
-        <v>0.797224</v>
+        <v>0.7594880000000001</v>
       </c>
       <c r="X2">
-        <v>0.825783</v>
+        <v>0.791537</v>
       </c>
       <c r="Y2">
-        <v>1.01525</v>
+        <v>0.977288</v>
       </c>
       <c r="Z2">
-        <v>0.88278</v>
+        <v>0.84855</v>
       </c>
       <c r="AA2">
-        <v>0.856012</v>
+        <v>0.822102</v>
       </c>
       <c r="AB2">
-        <v>0.857056</v>
+        <v>0.824044</v>
       </c>
       <c r="AC2">
-        <v>1.064904</v>
+        <v>1.027809</v>
       </c>
       <c r="AD2">
-        <v>1.267208</v>
+        <v>1.230428</v>
       </c>
       <c r="AE2">
-        <v>1.45337</v>
+        <v>1.427524</v>
       </c>
       <c r="AF2">
-        <v>1.28328</v>
+        <v>1.259585</v>
       </c>
       <c r="AG2">
-        <v>1.255585</v>
+        <v>1.235646</v>
       </c>
       <c r="AH2">
-        <v>1.53162</v>
+        <v>1.517151</v>
       </c>
       <c r="AI2">
-        <v>1.698514</v>
+        <v>1.685997</v>
       </c>
       <c r="AJ2">
-        <v>1.587703</v>
+        <v>1.573098</v>
       </c>
       <c r="AK2">
-        <v>1.804513</v>
+        <v>1.784449</v>
       </c>
       <c r="AL2">
-        <v>1.927799</v>
+        <v>1.919586</v>
       </c>
       <c r="AM2">
-        <v>2.308558</v>
+        <v>2.298762</v>
       </c>
       <c r="AN2">
-        <v>2.326236</v>
+        <v>2.317253</v>
       </c>
       <c r="AO2">
-        <v>2.248045</v>
+        <v>2.238834</v>
       </c>
       <c r="AP2">
-        <v>1.891669</v>
+        <v>1.883736</v>
       </c>
       <c r="AQ2">
-        <v>2.106326</v>
+        <v>2.098814</v>
       </c>
       <c r="AR2">
-        <v>2.127193</v>
+        <v>2.125321</v>
       </c>
       <c r="AS2">
-        <v>2.186335</v>
+        <v>2.1838</v>
       </c>
       <c r="AT2">
-        <v>2.097895</v>
+        <v>2.094756</v>
       </c>
       <c r="AU2">
-        <v>2.242524</v>
+        <v>2.240108</v>
       </c>
       <c r="AV2">
-        <v>2.378782</v>
+        <v>2.37623</v>
       </c>
       <c r="AW2">
-        <v>2.664666</v>
+        <v>2.663736</v>
       </c>
       <c r="AX2">
-        <v>2.289629</v>
+        <v>2.288688</v>
       </c>
       <c r="AY2">
-        <v>2.542921</v>
+        <v>2.541992</v>
       </c>
       <c r="AZ2">
-        <v>2.34130576</v>
+        <v>2.34127076</v>
       </c>
       <c r="BA2">
-        <v>2.23631767</v>
+        <v>2.23623967</v>
       </c>
       <c r="BB2">
-        <v>2.06009698</v>
+        <v>2.06003298</v>
       </c>
       <c r="BC2">
-        <v>1.98693484</v>
+        <v>1.98685584</v>
       </c>
       <c r="BD2">
-        <v>1.795506</v>
+        <v>1.795413</v>
       </c>
       <c r="BE2">
-        <v>1.836998</v>
+        <v>1.836944</v>
       </c>
       <c r="BF2">
-        <v>2.371126</v>
+        <v>2.371091</v>
       </c>
       <c r="BG2">
-        <v>2.506509</v>
+        <v>2.506313</v>
       </c>
       <c r="BH2">
-        <v>2.40558292</v>
+        <v>2.40549792</v>
       </c>
       <c r="BI2">
-        <v>1.91738995</v>
+        <v>1.91728595</v>
       </c>
       <c r="BJ2">
-        <v>1.76464825</v>
+        <v>1.76450825</v>
       </c>
       <c r="BK2">
-        <v>1.7366392</v>
+        <v>1.7365452</v>
       </c>
       <c r="BL2">
-        <v>1.87027414</v>
+        <v>1.87020014</v>
       </c>
       <c r="BM2">
-        <v>1.96106374</v>
+        <v>1.96100574</v>
       </c>
       <c r="BN2">
-        <v>2.40228208</v>
+        <v>2.40215608</v>
       </c>
       <c r="BO2">
-        <v>2.4120348</v>
+        <v>2.4118518</v>
       </c>
       <c r="BP2">
-        <v>1.56086639</v>
+        <v>1.56072839</v>
       </c>
       <c r="BQ2">
-        <v>1.83360229</v>
+        <v>1.83343629</v>
       </c>
       <c r="BR2">
-        <v>1.77346718</v>
+        <v>1.77329918</v>
       </c>
       <c r="BS2">
         <v>1.67656119</v>
@@ -33729,25 +33729,25 @@
         <v>2.01386667</v>
       </c>
       <c r="BV2">
-        <v>0.2313886</v>
+        <v>0.2238885</v>
       </c>
       <c r="BW2">
-        <v>0.5876255</v>
+        <v>0.5594264999999999</v>
       </c>
       <c r="BX2">
-        <v>0.9769327999999999</v>
+        <v>0.9420033999999999</v>
       </c>
       <c r="BY2">
-        <v>1.7971853</v>
+        <v>1.7830361</v>
       </c>
       <c r="BZ2">
-        <v>2.252794</v>
+        <v>2.2497181</v>
       </c>
       <c r="CA2">
-        <v>2.145776712</v>
+        <v>2.145694412</v>
       </c>
       <c r="CB2">
-        <v>1.894077098333333</v>
+        <v>1.893981515</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -36220,241 +36220,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.4615</v>
+        <v>0.4535</v>
       </c>
       <c r="C2">
-        <v>0.6588000000000001</v>
+        <v>0.6508</v>
       </c>
       <c r="D2">
-        <v>0.8117</v>
+        <v>0.8017</v>
       </c>
       <c r="E2">
-        <v>0.8765500000000001</v>
+        <v>0.86655</v>
       </c>
       <c r="F2">
-        <v>0.9023</v>
+        <v>0.8923</v>
       </c>
       <c r="G2">
-        <v>0.9124</v>
+        <v>0.9024</v>
       </c>
       <c r="H2">
-        <v>0.9728</v>
+        <v>0.9578</v>
       </c>
       <c r="I2">
-        <v>0.99865</v>
+        <v>0.98365</v>
       </c>
       <c r="J2">
-        <v>0.9578</v>
+        <v>0.9428</v>
       </c>
       <c r="K2">
-        <v>1.02645</v>
+        <v>1.01145</v>
       </c>
       <c r="L2">
-        <v>1.1379</v>
+        <v>1.1179</v>
       </c>
       <c r="M2">
-        <v>1.2902</v>
+        <v>1.2702</v>
       </c>
       <c r="N2">
-        <v>1.4098</v>
+        <v>1.3898</v>
       </c>
       <c r="O2">
-        <v>1.529136</v>
+        <v>1.509136</v>
       </c>
       <c r="P2">
-        <v>1.98408</v>
+        <v>1.863882</v>
       </c>
       <c r="Q2">
-        <v>2.264356</v>
+        <v>2.177132</v>
       </c>
       <c r="R2">
-        <v>2.425708</v>
+        <v>2.344259</v>
       </c>
       <c r="S2">
-        <v>2.698253</v>
+        <v>2.589786</v>
       </c>
       <c r="T2">
-        <v>3.344019</v>
+        <v>3.247243</v>
       </c>
       <c r="U2">
-        <v>3.090361</v>
+        <v>2.984438</v>
       </c>
       <c r="V2">
-        <v>2.604732</v>
+        <v>2.459956</v>
       </c>
       <c r="W2">
-        <v>2.539815</v>
+        <v>2.427313</v>
       </c>
       <c r="X2">
-        <v>3.094923</v>
+        <v>2.970412</v>
       </c>
       <c r="Y2">
-        <v>3.259833</v>
+        <v>3.117913</v>
       </c>
       <c r="Z2">
-        <v>2.902387</v>
+        <v>2.787595</v>
       </c>
       <c r="AA2">
-        <v>2.659542</v>
+        <v>2.538165</v>
       </c>
       <c r="AB2">
-        <v>2.830782</v>
+        <v>2.725089</v>
       </c>
       <c r="AC2">
-        <v>2.865185</v>
+        <v>2.733223</v>
       </c>
       <c r="AD2">
-        <v>3.372611</v>
+        <v>3.273301</v>
       </c>
       <c r="AE2">
-        <v>2.639564</v>
+        <v>2.549693</v>
       </c>
       <c r="AF2">
-        <v>2.264231</v>
+        <v>2.186455</v>
       </c>
       <c r="AG2">
-        <v>2.488059</v>
+        <v>2.403541</v>
       </c>
       <c r="AH2">
-        <v>2.479746</v>
+        <v>2.373414</v>
       </c>
       <c r="AI2">
-        <v>2.39831</v>
+        <v>2.338703</v>
       </c>
       <c r="AJ2">
-        <v>2.22216</v>
+        <v>2.172197</v>
       </c>
       <c r="AK2">
-        <v>2.210108</v>
+        <v>2.137294</v>
       </c>
       <c r="AL2">
-        <v>2.18824</v>
+        <v>2.155513</v>
       </c>
       <c r="AM2">
-        <v>2.795961</v>
+        <v>2.755957</v>
       </c>
       <c r="AN2">
-        <v>2.562109</v>
+        <v>2.527139</v>
       </c>
       <c r="AO2">
-        <v>2.151107</v>
+        <v>2.126379</v>
       </c>
       <c r="AP2">
-        <v>1.457287</v>
+        <v>1.428712</v>
       </c>
       <c r="AQ2">
-        <v>1.337298</v>
+        <v>1.306149</v>
       </c>
       <c r="AR2">
-        <v>1.892336</v>
+        <v>1.8584</v>
       </c>
       <c r="AS2">
-        <v>1.972129</v>
+        <v>1.928213</v>
       </c>
       <c r="AT2">
-        <v>1.747103</v>
+        <v>1.704699</v>
       </c>
       <c r="AU2">
-        <v>1.617449</v>
+        <v>1.589948</v>
       </c>
       <c r="AV2">
-        <v>1.355032</v>
+        <v>1.324782</v>
       </c>
       <c r="AW2">
-        <v>1.393713</v>
+        <v>1.355579</v>
       </c>
       <c r="AX2">
-        <v>1.578612</v>
+        <v>1.53384</v>
       </c>
       <c r="AY2">
-        <v>1.573194</v>
+        <v>1.530073</v>
       </c>
       <c r="AZ2">
-        <v>1.698764</v>
+        <v>1.635671</v>
       </c>
       <c r="BA2">
-        <v>1.726191</v>
+        <v>1.64903</v>
       </c>
       <c r="BB2">
-        <v>1.761592</v>
+        <v>1.696354</v>
       </c>
       <c r="BC2">
-        <v>1.788385</v>
+        <v>1.736635</v>
       </c>
       <c r="BD2">
-        <v>1.787033</v>
+        <v>1.732321</v>
       </c>
       <c r="BE2">
-        <v>1.669347</v>
+        <v>1.598561</v>
       </c>
       <c r="BF2">
-        <v>1.472657</v>
+        <v>1.379836</v>
       </c>
       <c r="BG2">
-        <v>1.486102</v>
+        <v>1.439867</v>
       </c>
       <c r="BH2">
-        <v>1.415297</v>
+        <v>1.357394</v>
       </c>
       <c r="BI2">
-        <v>1.262937</v>
+        <v>1.204786</v>
       </c>
       <c r="BJ2">
-        <v>1.42190596</v>
+        <v>1.36231096</v>
       </c>
       <c r="BK2">
-        <v>1.39638629</v>
+        <v>1.33957029</v>
       </c>
       <c r="BL2">
-        <v>1.72244899</v>
+        <v>1.64833499</v>
       </c>
       <c r="BM2">
-        <v>1.44422882</v>
+        <v>1.37588682</v>
       </c>
       <c r="BN2">
-        <v>1.61987523</v>
+        <v>1.57787923</v>
       </c>
       <c r="BO2">
-        <v>1.74543346</v>
+        <v>1.70201346</v>
       </c>
       <c r="BP2">
-        <v>1.75015701</v>
+        <v>1.71973801</v>
       </c>
       <c r="BQ2">
-        <v>1.7239297</v>
+        <v>1.7070367</v>
       </c>
       <c r="BR2">
-        <v>1.6269653</v>
+        <v>1.5957373</v>
       </c>
       <c r="BS2">
-        <v>1.38565584</v>
+        <v>1.36420724</v>
       </c>
       <c r="BT2">
-        <v>1.38166309</v>
+        <v>1.37035029</v>
       </c>
       <c r="BU2">
-        <v>1.4726141</v>
+        <v>1.4602869</v>
       </c>
       <c r="BV2">
-        <v>0.8578950000000001</v>
+        <v>0.8462949999999999</v>
       </c>
       <c r="BW2">
-        <v>2.1173813</v>
+        <v>2.0493776</v>
       </c>
       <c r="BX2">
-        <v>2.8769374</v>
+        <v>2.758266</v>
       </c>
       <c r="BY2">
-        <v>2.3760031</v>
+        <v>2.3176592</v>
       </c>
       <c r="BZ2">
-        <v>1.5924153</v>
+        <v>1.5560395</v>
       </c>
       <c r="CA2">
-        <v>1.6068305</v>
+        <v>1.5430455</v>
       </c>
       <c r="CB2">
-        <v>1.557605315833333</v>
+        <v>1.5186126825</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -38927,241 +38927,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.5542</v>
+        <v>0.5526</v>
       </c>
       <c r="C2">
-        <v>0.56487996</v>
+        <v>0.5632799599999999</v>
       </c>
       <c r="D2">
-        <v>0.623291</v>
+        <v>0.621591</v>
       </c>
       <c r="E2">
-        <v>0.68318027</v>
+        <v>0.68038027</v>
       </c>
       <c r="F2">
-        <v>0.678884</v>
+        <v>0.6757840000000001</v>
       </c>
       <c r="G2">
-        <v>0.75114273</v>
+        <v>0.74794273</v>
       </c>
       <c r="H2">
-        <v>0.83871101</v>
+        <v>0.8355110100000001</v>
       </c>
       <c r="I2">
-        <v>0.99111099</v>
+        <v>0.98751099</v>
       </c>
       <c r="J2">
-        <v>0.873181</v>
+        <v>0.869681</v>
       </c>
       <c r="K2">
-        <v>0.740876</v>
+        <v>0.737476</v>
       </c>
       <c r="L2">
-        <v>1.032206</v>
+        <v>1.028106</v>
       </c>
       <c r="M2">
-        <v>0.873966</v>
+        <v>0.869266</v>
       </c>
       <c r="N2">
-        <v>0.86895099</v>
+        <v>0.86395099</v>
       </c>
       <c r="O2">
-        <v>0.856895</v>
+        <v>0.851395</v>
       </c>
       <c r="P2">
-        <v>1.063178</v>
+        <v>1.057778</v>
       </c>
       <c r="Q2">
-        <v>1.105539</v>
+        <v>1.101239</v>
       </c>
       <c r="R2">
-        <v>1.250658</v>
+        <v>1.246158</v>
       </c>
       <c r="S2">
-        <v>1.230065</v>
+        <v>1.225165</v>
       </c>
       <c r="T2">
-        <v>1.274146</v>
+        <v>1.267746</v>
       </c>
       <c r="U2">
-        <v>1.314788</v>
+        <v>1.307888</v>
       </c>
       <c r="V2">
-        <v>1.419667</v>
+        <v>1.411967</v>
       </c>
       <c r="W2">
-        <v>1.52412</v>
+        <v>1.52002</v>
       </c>
       <c r="X2">
-        <v>1.41578399</v>
+        <v>1.41198399</v>
       </c>
       <c r="Y2">
-        <v>1.678121</v>
+        <v>1.673121</v>
       </c>
       <c r="Z2">
-        <v>1.90033</v>
+        <v>1.897762</v>
       </c>
       <c r="AA2">
-        <v>1.90653501</v>
+        <v>1.90520501</v>
       </c>
       <c r="AB2">
-        <v>1.836979</v>
+        <v>1.835579</v>
       </c>
       <c r="AC2">
-        <v>2.05643799</v>
+        <v>2.05518199</v>
       </c>
       <c r="AD2">
-        <v>1.988606</v>
+        <v>1.986307</v>
       </c>
       <c r="AE2">
-        <v>1.921744</v>
+        <v>1.919346</v>
       </c>
       <c r="AF2">
-        <v>1.912696</v>
+        <v>1.909218</v>
       </c>
       <c r="AG2">
-        <v>1.811469</v>
+        <v>1.808093</v>
       </c>
       <c r="AH2">
-        <v>1.893223</v>
+        <v>1.889951</v>
       </c>
       <c r="AI2">
-        <v>2.036224</v>
+        <v>2.032449</v>
       </c>
       <c r="AJ2">
-        <v>2.399175</v>
+        <v>2.395347</v>
       </c>
       <c r="AK2">
-        <v>2.50904299</v>
+        <v>2.50467099</v>
       </c>
       <c r="AL2">
-        <v>2.60316799</v>
+        <v>2.52864199</v>
       </c>
       <c r="AM2">
-        <v>2.665933</v>
+        <v>2.58884</v>
       </c>
       <c r="AN2">
-        <v>2.91021831</v>
+        <v>2.830117</v>
       </c>
       <c r="AO2">
-        <v>3.28586003</v>
+        <v>3.20396</v>
       </c>
       <c r="AP2">
-        <v>3.27296619</v>
+        <v>3.18917299</v>
       </c>
       <c r="AQ2">
-        <v>3.44934475</v>
+        <v>3.363274</v>
       </c>
       <c r="AR2">
-        <v>3.62025231</v>
+        <v>3.531999</v>
       </c>
       <c r="AS2">
-        <v>3.78624036</v>
+        <v>3.694095</v>
       </c>
       <c r="AT2">
-        <v>3.82110508</v>
+        <v>3.726242</v>
       </c>
       <c r="AU2">
-        <v>3.83682874</v>
+        <v>3.739619</v>
       </c>
       <c r="AV2">
-        <v>3.92956116</v>
+        <v>3.82983401</v>
       </c>
       <c r="AW2">
-        <v>4.05801383</v>
+        <v>3.955606</v>
       </c>
       <c r="AX2">
-        <v>3.83738338</v>
+        <v>3.73201101</v>
       </c>
       <c r="AY2">
-        <v>4.077694950000001</v>
+        <v>3.991755</v>
       </c>
       <c r="AZ2">
-        <v>3.99224892</v>
+        <v>3.92566601</v>
       </c>
       <c r="BA2">
-        <v>4.03492656</v>
+        <v>3.98833</v>
       </c>
       <c r="BB2">
-        <v>4.31870882</v>
+        <v>4.27425899</v>
       </c>
       <c r="BC2">
-        <v>4.44269825</v>
+        <v>4.400836</v>
       </c>
       <c r="BD2">
-        <v>4.39843825</v>
+        <v>4.361176</v>
       </c>
       <c r="BE2">
-        <v>4.4656985</v>
+        <v>4.430132</v>
       </c>
       <c r="BF2">
-        <v>4.5230215</v>
+        <v>4.488748</v>
       </c>
       <c r="BG2">
-        <v>4.2282775</v>
+        <v>4.195788</v>
       </c>
       <c r="BH2">
-        <v>4.15988804</v>
+        <v>4.12876454</v>
       </c>
       <c r="BI2">
-        <v>4.191614589999999</v>
+        <v>4.162035589999999</v>
       </c>
       <c r="BJ2">
-        <v>4.28259439</v>
+        <v>4.25449539</v>
       </c>
       <c r="BK2">
-        <v>4.2732211</v>
+        <v>4.2462341</v>
       </c>
       <c r="BL2">
-        <v>4.5502208</v>
+        <v>4.5249788</v>
       </c>
       <c r="BM2">
-        <v>4.59800041</v>
+        <v>4.57409441</v>
       </c>
       <c r="BN2">
-        <v>4.83208318</v>
+        <v>4.81090518</v>
       </c>
       <c r="BO2">
-        <v>4.7239648</v>
+        <v>4.70332156</v>
       </c>
       <c r="BP2">
-        <v>5.09375219</v>
+        <v>5.071224190000001</v>
       </c>
       <c r="BQ2">
-        <v>5.48766439</v>
+        <v>5.46552539</v>
       </c>
       <c r="BR2">
-        <v>5.54112989</v>
+        <v>5.51961358</v>
       </c>
       <c r="BS2">
-        <v>5.61771432</v>
+        <v>5.59739944</v>
       </c>
       <c r="BT2">
-        <v>5.16491393</v>
+        <v>5.13420919</v>
       </c>
       <c r="BU2">
-        <v>5.516855400000001</v>
+        <v>5.481189860000001</v>
       </c>
       <c r="BV2">
-        <v>0.7299456959999999</v>
+        <v>0.727175696</v>
       </c>
       <c r="BW2">
-        <v>1.087039199</v>
+        <v>1.081869199</v>
       </c>
       <c r="BX2">
-        <v>1.764832399</v>
+        <v>1.761647299</v>
       </c>
       <c r="BY2">
-        <v>2.402700932</v>
+        <v>2.369128798</v>
       </c>
       <c r="BZ2">
-        <v>3.768939075</v>
+        <v>3.675360801</v>
       </c>
       <c r="CA2">
-        <v>4.275552093</v>
+        <v>4.235573513</v>
       </c>
       <c r="CB2">
-        <v>4.973509566666666</v>
+        <v>4.948599257500001</v>
       </c>
     </row>
     <row r="3" spans="1:80">
@@ -41634,241 +41634,241 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.31671</v>
+        <v>0.31661</v>
       </c>
       <c r="C2">
-        <v>0.34022399</v>
+        <v>0.34012399</v>
       </c>
       <c r="D2">
-        <v>0.396206</v>
+        <v>0.395906</v>
       </c>
       <c r="E2">
-        <v>0.40390273</v>
+        <v>0.40350273</v>
       </c>
       <c r="F2">
-        <v>0.522308</v>
+        <v>0.522008</v>
       </c>
       <c r="G2">
-        <v>0.51356327</v>
+        <v>0.51326327</v>
       </c>
       <c r="H2">
-        <v>0.68983499</v>
+        <v>0.68943499</v>
       </c>
       <c r="I2">
-        <v>0.671592</v>
+        <v>0.671092</v>
       </c>
       <c r="J2">
-        <v>0.665319</v>
+        <v>0.664819</v>
       </c>
       <c r="K2">
-        <v>0.703052</v>
+        <v>0.702752</v>
       </c>
       <c r="L2">
-        <v>0.77864101</v>
+        <v>0.77844101</v>
       </c>
       <c r="M2">
-        <v>0.772794</v>
+        <v>0.772294</v>
       </c>
       <c r="N2">
-        <v>0.79347301</v>
+        <v>0.7932730100000001</v>
       </c>
       <c r="O2">
-        <v>0.820197</v>
+        <v>0.818997</v>
       </c>
       <c r="P2">
-        <v>0.867246</v>
+        <v>0.865146</v>
       </c>
       <c r="Q2">
-        <v>0.873277</v>
+        <v>0.868177</v>
       </c>
       <c r="R2">
-        <v>0.9458630100000001</v>
+        <v>0.9387630100000001</v>
       </c>
       <c r="S2">
-        <v>1.029781</v>
+        <v>1.022681</v>
       </c>
       <c r="T2">
-        <v>1.097022</v>
+        <v>1.089922</v>
       </c>
       <c r="U2">
-        <v>1.09189</v>
+        <v>1.08479</v>
       </c>
       <c r="V2">
-        <v>1.144023</v>
+        <v>1.138923</v>
       </c>
       <c r="W2">
-        <v>1.146084</v>
+        <v>1.141984</v>
       </c>
       <c r="X2">
-        <v>1.15920701</v>
+        <v>1.15280701</v>
       </c>
       <c r="Y2">
-        <v>1.190349</v>
+        <v>1.183949</v>
       </c>
       <c r="Z2">
-        <v>1.390949</v>
+        <v>1.386904</v>
       </c>
       <c r="AA2">
-        <v>1.58507599</v>
+        <v>1.58008599</v>
       </c>
       <c r="AB2">
-        <v>1.711696</v>
+        <v>1.705544</v>
       </c>
       <c r="AC2">
-        <v>1.987749</v>
+        <v>1.971637</v>
       </c>
       <c r="AD2">
-        <v>2.05968001</v>
+        <v>2.04216001</v>
       </c>
       <c r="AE2">
-        <v>2.12458201</v>
+        <v>2.10531301</v>
       </c>
       <c r="AF2">
-        <v>2.18893</v>
+        <v>2.172769</v>
       </c>
       <c r="AG2">
-        <v>2.236999</v>
+        <v>2.220341</v>
       </c>
       <c r="AH2">
-        <v>2.386738</v>
+        <v>2.374187</v>
       </c>
       <c r="AI2">
-        <v>2.5804035</v>
+        <v>2.566651</v>
       </c>
       <c r="AJ2">
-        <v>2.6409631</v>
+        <v>2.621096</v>
       </c>
       <c r="AK2">
-        <v>2.66313561</v>
+        <v>2.59115201</v>
       </c>
       <c r="AL2">
-        <v>2.9385399</v>
+        <v>2.856157</v>
       </c>
       <c r="AM2">
-        <v>3.153701</v>
+        <v>3.060389</v>
       </c>
       <c r="AN2">
-        <v>3.133733</v>
+        <v>3.033026</v>
       </c>
       <c r="AO2">
-        <v>3.333639</v>
+        <v>3.226231</v>
       </c>
       <c r="AP2">
-        <v>3.35463601</v>
+        <v>3.23172901</v>
       </c>
       <c r="AQ2">
-        <v>3.546647</v>
+        <v>3.441762</v>
       </c>
       <c r="AR2">
-        <v>3.77260109</v>
+        <v>3.66186001</v>
       </c>
       <c r="AS2">
-        <v>4.16757889</v>
+        <v>4.038924</v>
       </c>
       <c r="AT2">
-        <v>4.13862667</v>
+        <v>4.023868</v>
       </c>
       <c r="AU2">
-        <v>4.30635091</v>
+        <v>4.18527499</v>
       </c>
       <c r="AV2">
-        <v>4.3693773</v>
+        <v>4.21929299</v>
       </c>
       <c r="AW2">
-        <v>4.78018284</v>
+        <v>4.661464</v>
       </c>
       <c r="AX2">
-        <v>4.99429385</v>
+        <v>4.94894699</v>
       </c>
       <c r="AY2">
-        <v>4.9160037</v>
+        <v>4.891651</v>
       </c>
       <c r="AZ2">
-        <v>5.09509059</v>
+        <v>5.07654099</v>
       </c>
       <c r="BA2">
-        <v>4.903604</v>
+        <v>4.884333</v>
       </c>
       <c r="BB2">
-        <v>5.179115009999999</v>
+        <v>5.15678401</v>
       </c>
       <c r="BC2">
-        <v>5.356954200000001</v>
+        <v>5.333833</v>
       </c>
       <c r="BD2">
-        <v>5.5909234</v>
+        <v>5.574076</v>
       </c>
       <c r="BE2">
-        <v>5.501324990000001</v>
+        <v>5.48299699</v>
       </c>
       <c r="BF2">
-        <v>5.730002</v>
+        <v>5.712587</v>
       </c>
       <c r="BG2">
-        <v>5.732162</v>
+        <v>5.727637</v>
       </c>
       <c r="BH2">
-        <v>5.836538</v>
+        <v>5.831972</v>
       </c>
       <c r="BI2">
-        <v>6.03695101</v>
+        <v>6.03177801</v>
       </c>
       <c r="BJ2">
-        <v>5.97453204</v>
+        <v>5.96886004</v>
       </c>
       <c r="BK2">
-        <v>6.16316909</v>
+        <v>6.15759509</v>
       </c>
       <c r="BL2">
-        <v>6.1628143</v>
+        <v>6.1551923</v>
       </c>
       <c r="BM2">
-        <v>6.25555875</v>
+        <v>6.24635875</v>
       </c>
       <c r="BN2">
-        <v>6.35439003</v>
+        <v>6.31529203</v>
       </c>
       <c r="BO2">
-        <v>6.37874002</v>
+        <v>6.35012002</v>
       </c>
       <c r="BP2">
-        <v>6.40420619</v>
+        <v>6.378993179999999</v>
       </c>
       <c r="BQ2">
-        <v>7.09586271</v>
+        <v>7.0682217</v>
       </c>
       <c r="BR2">
-        <v>6.72029934</v>
+        <v>6.69583728</v>
       </c>
       <c r="BS2">
-        <v>6.68919305</v>
+        <v>6.60513086</v>
       </c>
       <c r="BT2">
-        <v>6.32950622</v>
+        <v>6.25310612</v>
       </c>
       <c r="BU2">
-        <v>5.94414942</v>
+        <v>5.88707507</v>
       </c>
       <c r="BV2">
-        <v>0.522271198</v>
+        <v>0.521951198</v>
       </c>
       <c r="BW2">
-        <v>0.907018403</v>
+        <v>0.9032484029999999</v>
       </c>
       <c r="BX2">
-        <v>1.549939502</v>
+        <v>1.540930702</v>
       </c>
       <c r="BY2">
-        <v>2.725678211</v>
+        <v>2.672199901</v>
       </c>
       <c r="BZ2">
-        <v>4.234629826</v>
+        <v>4.130477299000001</v>
       </c>
       <c r="CA2">
-        <v>5.496266520000001</v>
+        <v>5.4812538</v>
       </c>
       <c r="CB2">
-        <v>6.372701763333333</v>
+        <v>6.340148536666667</v>
       </c>
     </row>
     <row r="3" spans="1:80">
